--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5FD1583-0C35-4573-B184-2468DA0D4386}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E75B6BC-A338-45EE-B00D-8510168D8393}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>AT</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>BE</t>
+  </si>
+  <si>
+    <t>Z_AD</t>
+  </si>
+  <si>
+    <t>Z_MC</t>
+  </si>
+  <si>
+    <t>Z_VA</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Z_SM</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -489,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -556,190 +592,298 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="e">
         <f>AVERAGE(C5:ZZ5)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <f>AVERAGE(C6:ZZ6)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <f>AVERAGE(C7:ZZ7)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(C8:ZZ8)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
         <f>AVERAGE(C9:ZZ9)</f>
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <f>AVERAGE(C10:ZZ10)</f>
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="e">
         <f>AVERAGE(C11:ZZ11)</f>
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
         <f>AVERAGE(C12:ZZ12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5">
         <f>AVERAGE(C13:ZZ13)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="5">
         <f>AVERAGE(C14:ZZ14)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="e">
         <f>AVERAGE(C15:ZZ15)</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="5">
         <f>AVERAGE(C16:ZZ16)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="e">
         <f>AVERAGE(C17:ZZ17)</f>
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B18" s="5">
         <f>AVERAGE(C18:ZZ18)</f>
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="e">
+        <f>AVERAGE(C19:ZZ19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <f>AVERAGE(C20:ZZ20)</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="e">
+        <f>AVERAGE(C21:ZZ21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="e">
+        <f>AVERAGE(C22:ZZ22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <f>AVERAGE(C23:ZZ23)</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <f>AVERAGE(C24:ZZ24)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5" t="e">
+        <f>AVERAGE(C25:ZZ25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5">
+        <f>AVERAGE(C26:ZZ26)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="e">
+        <f>AVERAGE(C27:ZZ27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5" t="e">
+        <f>AVERAGE(C28:ZZ28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="e">
+        <f>AVERAGE(C29:ZZ29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="e">
+        <f>AVERAGE(C30:ZZ30)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E75B6BC-A338-45EE-B00D-8510168D8393}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EB86B8-C216-4594-B4E9-DA9C039C329C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>AT</t>
   </si>
@@ -62,24 +62,6 @@
     <t>FI</t>
   </si>
   <si>
-    <t>DE-A</t>
-  </si>
-  <si>
-    <t>DE-D</t>
-  </si>
-  <si>
-    <t>DE-F</t>
-  </si>
-  <si>
-    <t>DE-G</t>
-  </si>
-  <si>
-    <t>DE-J</t>
-  </si>
-  <si>
-    <t>_Sonder</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -126,6 +108,15 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>_Gedenk</t>
   </si>
 </sst>
 </file>
@@ -135,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +136,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -178,18 +176,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,6 +217,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,366 +540,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="8"/>
+    <col min="2" max="2" width="10.7109375" style="4"/>
+    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3">
+        <v>45606</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F1" s="3">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6">
+        <f>SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>_xlfn.RANK.AVG(C3,$C$3:$C$26,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f>SUM(D3:AAA3)/COUNT($D$1:$AAA$1)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A26" si="0">_xlfn.RANK.AVG(C4,$C$3:$C$26,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <f>SUM(D4:AAA4)/COUNT($D$1:$AAA$1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <f>SUM(D5:AAA5)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <f>SUM(D6:AAA6)/COUNT($D$1:$AAA$1)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(D7:AAA7)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <f>SUM(D8:AAA8)/COUNT($D$1:$AAA$1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM(D9:AAA9)/COUNT($D$1:$AAA$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <f>SUM(D10:AAA10)/COUNT($D$1:$AAA$1)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <f>SUM(D11:AAA11)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <f>SUM(D12:AAA12)/COUNT($D$1:$AAA$1)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <f>SUM(D13:AAA13)/COUNT($D$1:$AAA$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <f>SUM(D14:AAA14)/COUNT($D$1:$AAA$1)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <f>SUM(D15:AAA15)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <f>SUM(D16:AAA16)/COUNT($D$1:$AAA$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6">
+        <f>SUM(D17:AAA17)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <f>SUM(D18:AAA18)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <f>SUM(D19:AAA19)/COUNT($D$1:$AAA$1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <f>SUM(D20:AAA20)/COUNT($D$1:$AAA$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6">
+        <f>SUM(D21:AAA21)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6">
+        <f>SUM(D22:AAA22)/COUNT($D$1:$AAA$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6">
+        <f>SUM(D23:AAA23)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6">
+        <f>SUM(D24:AAA24)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6">
+        <f>SUM(D25:AAA25)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1">
-        <v>45606</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(C2:ZZ2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <f>AVERAGE(C3:ZZ3)</f>
-        <v>5.5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5">
-        <f>AVERAGE(C4:ZZ4)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="e">
-        <f>AVERAGE(C5:ZZ5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <f>AVERAGE(C6:ZZ6)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <f>AVERAGE(C7:ZZ7)</f>
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <f>AVERAGE(C8:ZZ8)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
-        <f>AVERAGE(C9:ZZ9)</f>
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5">
-        <f>AVERAGE(C10:ZZ10)</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="e">
-        <f>AVERAGE(C11:ZZ11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <f>AVERAGE(C12:ZZ12)</f>
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <f>AVERAGE(C13:ZZ13)</f>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <f>AVERAGE(C14:ZZ14)</f>
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5" t="e">
-        <f>AVERAGE(C15:ZZ15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5">
-        <f>AVERAGE(C16:ZZ16)</f>
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="e">
-        <f>AVERAGE(C17:ZZ17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5">
-        <f>AVERAGE(C18:ZZ18)</f>
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5" t="e">
-        <f>AVERAGE(C19:ZZ19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5">
-        <f>AVERAGE(C20:ZZ20)</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="5" t="e">
-        <f>AVERAGE(C21:ZZ21)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5" t="e">
-        <f>AVERAGE(C22:ZZ22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5">
-        <f>AVERAGE(C23:ZZ23)</f>
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5">
-        <f>AVERAGE(C24:ZZ24)</f>
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5" t="e">
-        <f>AVERAGE(C25:ZZ25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5">
-        <f>AVERAGE(C26:ZZ26)</f>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5" t="e">
-        <f>AVERAGE(C27:ZZ27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="5" t="e">
-        <f>AVERAGE(C28:ZZ28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="e">
-        <f>AVERAGE(C29:ZZ29)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5" t="e">
-        <f>AVERAGE(C30:ZZ30)</f>
-        <v>#DIV/0!</v>
+      <c r="C26" s="6">
+        <f>SUM(D26:AAA26)/COUNT($D$1:$AAA$1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E26">
+    <sortCondition ref="B2:B26"/>
   </sortState>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="5" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EB86B8-C216-4594-B4E9-DA9C039C329C}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60D6D61A-7EEF-4ABD-81A2-FB27A501FEA7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -546,7 +546,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,8 +554,8 @@
     <col min="1" max="1" width="10.7109375" style="8"/>
     <col min="2" max="2" width="10.7109375" style="4"/>
     <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="4"/>
+    <col min="4" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -575,6 +575,9 @@
       <c r="F1" s="3">
         <v>45608</v>
       </c>
+      <c r="G1" s="3">
+        <v>45609</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -594,6 +597,9 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -601,76 +607,96 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6">
         <f>SUM(D3:AAA3)/COUNT($D$1:$AAA$1)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A26" si="0">_xlfn.RANK.AVG(C4,$C$3:$C$26,0)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(C4,$C$3:$C$26,0)</f>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6">
         <f>SUM(D4:AAA4)/COUNT($D$1:$AAA$1)</f>
-        <v>0.66666666666666663</v>
+        <v>5.25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C5,$C$3:$C$26,0)</f>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <f>SUM(D5:AAA5)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
+        <v>3.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(C6,$C$3:$C$26,0)</f>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(D6:AAA6)/COUNT($D$1:$AAA$1)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>1.75</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -682,261 +708,261 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C7,$C$3:$C$26,0)</f>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(D7:AAA7)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(C8,$C$3:$C$26,0)</f>
+        <v>6.5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(D8:AAA8)/COUNT($D$1:$AAA$1)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(C9,$C$3:$C$26,0)</f>
+        <v>6.5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6">
         <f>SUM(D9:AAA9)/COUNT($D$1:$AAA$1)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(C10,$C$3:$C$26,0)</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C10" s="6">
         <f>SUM(D10:AAA10)/COUNT($D$1:$AAA$1)</f>
-        <v>2.6666666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C11,$C$3:$C$26,0)</f>
+        <v>11.5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(D11:AAA11)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>_xlfn.RANK.AVG(C12,$C$3:$C$26,0)</f>
+        <v>11.5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <f>SUM(D12:AAA12)/COUNT($D$1:$AAA$1)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(C13,$C$3:$C$26,0)</f>
+        <v>11.5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6">
         <f>SUM(D13:AAA13)/COUNT($D$1:$AAA$1)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(C14,$C$3:$C$26,0)</f>
+        <v>11.5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6">
         <f>SUM(D14:AAA14)/COUNT($D$1:$AAA$1)</f>
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C15,$C$3:$C$26,0)</f>
+        <v>11.5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(D15:AAA15)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(C16,$C$3:$C$26,0)</f>
+        <v>11.5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6">
         <f>SUM(D16:AAA16)/COUNT($D$1:$AAA$1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C17,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(D17:AAA17)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(C18,$C$3:$C$26,0)</f>
+        <v>19.5</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C18" s="6">
         <f>SUM(D18:AAA18)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(C19,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6">
         <f>SUM(D19:AAA19)/COUNT($D$1:$AAA$1)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(C20,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(D20:AAA20)/COUNT($D$1:$AAA$1)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C21,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6">
         <f>SUM(D21:AAA21)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(C22,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6">
         <f>SUM(D22:AAA22)/COUNT($D$1:$AAA$1)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C23,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
@@ -946,10 +972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C24,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -959,10 +985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C25,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -972,10 +998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(C26,$C$3:$C$26,0)</f>
+        <v>19.5</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
@@ -986,8 +1012,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E26">
-    <sortCondition ref="B2:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G26">
+    <sortCondition ref="A3:A26"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
     <cfRule type="colorScale" priority="2">

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60D6D61A-7EEF-4ABD-81A2-FB27A501FEA7}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B755668-D09B-4152-A3D5-4C9A64AB6670}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -206,7 +206,20 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -546,7 +559,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1029,7 @@
     <sortCondition ref="A3:A26"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1025,6 +1038,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1:W1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>SUM(D2:D31)=25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B755668-D09B-4152-A3D5-4C9A64AB6670}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B44E0E7-0F64-4524-82A6-B9F5C1738F33}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -195,9 +195,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,25 +550,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="8"/>
+    <col min="1" max="1" width="10.7109375" style="7"/>
     <col min="2" max="2" width="10.7109375" style="4"/>
     <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="4"/>
+    <col min="4" max="8" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -591,15 +588,18 @@
       <c r="G1" s="3">
         <v>45609</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H1" s="3">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="6">
-        <f>SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
-        <v>3</v>
+        <f t="shared" ref="C2:C26" si="0">SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
+        <v>2.8</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -613,43 +613,49 @@
       <c r="G2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>_xlfn.RANK.AVG(C3,$C$3:$C$26,0)</f>
+        <f t="shared" ref="A3:A26" si="1">_xlfn.RANK.AVG(C3,$C$3:$C$26,0)</f>
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(D3:AAA3)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>_xlfn.RANK.AVG(C4,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(D4:AAA4)/COUNT($D$1:$AAA$1)</f>
-        <v>5.25</v>
+        <f t="shared" si="0"/>
+        <v>5.6</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -663,18 +669,21 @@
       <c r="G4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>_xlfn.RANK.AVG(C5,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <f>SUM(D5:AAA5)/COUNT($D$1:$AAA$1)</f>
-        <v>3.75</v>
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -685,18 +694,21 @@
       <c r="G5" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>_xlfn.RANK.AVG(C6,$C$3:$C$26,0)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6">
-        <f>SUM(D6:AAA6)/COUNT($D$1:$AAA$1)</f>
-        <v>1.75</v>
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -710,26 +722,21 @@
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>_xlfn.RANK.AVG(C7,$C$3:$C$26,0)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <f>SUM(D7:AAA7)/COUNT($D$1:$AAA$1)</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -740,18 +747,21 @@
       <c r="G7" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>_xlfn.RANK.AVG(C8,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="6">
-        <f>SUM(D8:AAA8)/COUNT($D$1:$AAA$1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -763,33 +773,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>_xlfn.RANK.AVG(C9,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <f>SUM(D9:AAA9)/COUNT($D$1:$AAA$1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f>_xlfn.RANK.AVG(C10,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <f>SUM(D10:AAA10)/COUNT($D$1:$AAA$1)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -797,236 +807,242 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>_xlfn.RANK.AVG(C11,$C$3:$C$26,0)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6">
-        <f>SUM(D11:AAA11)/COUNT($D$1:$AAA$1)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>_xlfn.RANK.AVG(C12,$C$3:$C$26,0)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="6">
-        <f>SUM(D12:AAA12)/COUNT($D$1:$AAA$1)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>_xlfn.RANK.AVG(C13,$C$3:$C$26,0)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="6">
-        <f>SUM(D13:AAA13)/COUNT($D$1:$AAA$1)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>_xlfn.RANK.AVG(C14,$C$3:$C$26,0)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6">
-        <f>SUM(D14:AAA14)/COUNT($D$1:$AAA$1)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>_xlfn.RANK.AVG(C15,$C$3:$C$26,0)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="6">
-        <f>SUM(D15:AAA15)/COUNT($D$1:$AAA$1)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>_xlfn.RANK.AVG(C16,$C$3:$C$26,0)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <f>SUM(D16:AAA16)/COUNT($D$1:$AAA$1)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>_xlfn.RANK.AVG(C17,$C$3:$C$26,0)</f>
-        <v>19.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6">
-        <f>SUM(D17:AAA17)/COUNT($D$1:$AAA$1)</f>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>_xlfn.RANK.AVG(C18,$C$3:$C$26,0)</f>
-        <v>19.5</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
-        <f>SUM(D18:AAA18)/COUNT($D$1:$AAA$1)</f>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>_xlfn.RANK.AVG(C19,$C$3:$C$26,0)</f>
-        <v>19.5</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
-        <f>SUM(D19:AAA19)/COUNT($D$1:$AAA$1)</f>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>_xlfn.RANK.AVG(C20,$C$3:$C$26,0)</f>
-        <v>19.5</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
         <v>20</v>
-      </c>
-      <c r="C20" s="6">
-        <f>SUM(D20:AAA20)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>_xlfn.RANK.AVG(C21,$C$3:$C$26,0)</f>
-        <v>19.5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6">
-        <f>SUM(D21:AAA21)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>_xlfn.RANK.AVG(C22,$C$3:$C$26,0)</f>
-        <v>19.5</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="6">
-        <f>SUM(D22:AAA22)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>_xlfn.RANK.AVG(C23,$C$3:$C$26,0)</f>
-        <v>19.5</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="6">
-        <f>SUM(D23:AAA23)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>_xlfn.RANK.AVG(C24,$C$3:$C$26,0)</f>
-        <v>19.5</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="6">
-        <f>SUM(D24:AAA24)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>_xlfn.RANK.AVG(C25,$C$3:$C$26,0)</f>
-        <v>19.5</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="6">
-        <f>SUM(D25:AAA25)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f>_xlfn.RANK.AVG(C26,$C$3:$C$26,0)</f>
-        <v>19.5</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="6">
-        <f>SUM(D26:AAA26)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G26">
-    <sortCondition ref="A3:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H26">
+    <sortCondition descending="1" ref="C3:C26"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
     <cfRule type="colorScale" priority="3">

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B44E0E7-0F64-4524-82A6-B9F5C1738F33}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166811C4-F3F9-4497-B9E9-BF2CD40E8EFE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -550,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,11 +564,11 @@
     <col min="1" max="1" width="10.7109375" style="7"/>
     <col min="2" max="2" width="10.7109375" style="4"/>
     <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="4"/>
+    <col min="4" max="9" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -591,15 +591,18 @@
       <c r="H1" s="3">
         <v>45610</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="6">
-        <f t="shared" ref="C2:C26" si="0">SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
-        <v>2.8</v>
+        <f>SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -616,74 +619,83 @@
       <c r="H2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A26" si="1">_xlfn.RANK.AVG(C3,$C$3:$C$26,0)</f>
+        <f>_xlfn.RANK.EQ(C3,$C$3:$C$26,0)</f>
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
+        <f>SUM(D3:AAA3)/COUNT($D$1:$AAA$1)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
       </c>
       <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="4">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A4:A26" si="0">_xlfn.RANK.EQ(C4,$C$3:$C$26,0)</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
+        <f>SUM(D4:AAA4)/COUNT($D$1:$AAA$1)</f>
+        <v>5.5</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
       </c>
       <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f>SUM(D5:AAA5)/COUNT($D$1:$AAA$1)</f>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -697,18 +709,21 @@
       <c r="H5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
+        <f>SUM(D6:AAA6)/COUNT($D$1:$AAA$1)</f>
+        <v>2.1666666666666665</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -725,18 +740,21 @@
       <c r="H6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
+        <f>SUM(D7:AAA7)/COUNT($D$1:$AAA$1)</f>
+        <v>1.8333333333333333</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -750,18 +768,21 @@
       <c r="H7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f>SUM(D8:AAA8)/COUNT($D$1:$AAA$1)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -772,34 +793,40 @@
       <c r="G8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f>SUM(D9:AAA9)/COUNT($D$1:$AAA$1)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>SUM(D10:AAA10)/COUNT($D$1:$AAA$1)</f>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -811,238 +838,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>SUM(D11:AAA11)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <f>SUM(D12:AAA12)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6">
+        <f>SUM(D13:AAA13)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6">
+        <f>SUM(D14:AAA14)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="6">
+        <f>SUM(D15:AAA15)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="6">
+        <f>SUM(D16:AAA16)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="6">
+        <f>SUM(D17:AAA17)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(D18:AAA18)/COUNT($D$1:$AAA$1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:AAA19)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D20:AAA20)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:AAA21)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:AAA22)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:AAA23)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:AAA24)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:AAA25)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:AAA26)/COUNT($D$1:$AAA$1)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I26">
     <sortCondition descending="1" ref="C3:C26"/>
+    <sortCondition ref="B3:B26"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
     <cfRule type="colorScale" priority="3">

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166811C4-F3F9-4497-B9E9-BF2CD40E8EFE}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F01326-F01C-44D5-A46B-B440CAD1B358}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -550,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,11 +564,11 @@
     <col min="1" max="1" width="10.7109375" style="7"/>
     <col min="2" max="2" width="10.7109375" style="4"/>
     <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="4"/>
+    <col min="4" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -594,15 +594,18 @@
       <c r="I1" s="3">
         <v>45612</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
-        <v>2.6666666666666665</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -622,8 +625,11 @@
       <c r="I2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>_xlfn.RANK.EQ(C3,$C$3:$C$26,0)</f>
         <v>1</v>
@@ -633,7 +639,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(D3:AAA3)/COUNT($D$1:$AAA$1)</f>
-        <v>5.666666666666667</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
@@ -653,18 +659,21 @@
       <c r="I3" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A26" si="0">_xlfn.RANK.EQ(C4,$C$3:$C$26,0)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.EQ(C4,$C$3:$C$26,0)</f>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="6">
         <f>SUM(D4:AAA4)/COUNT($D$1:$AAA$1)</f>
-        <v>5.5</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -684,10 +693,13 @@
       <c r="I4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C5,$C$3:$C$26,0)</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -695,7 +707,7 @@
       </c>
       <c r="C5" s="6">
         <f>SUM(D5:AAA5)/COUNT($D$1:$AAA$1)</f>
-        <v>3.6666666666666665</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -712,10 +724,13 @@
       <c r="I5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C6,$C$3:$C$26,0)</f>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -723,7 +738,7 @@
       </c>
       <c r="C6" s="6">
         <f>SUM(D6:AAA6)/COUNT($D$1:$AAA$1)</f>
-        <v>2.1666666666666665</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -743,10 +758,13 @@
       <c r="I6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C7,$C$3:$C$26,0)</f>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -754,7 +772,7 @@
       </c>
       <c r="C7" s="6">
         <f>SUM(D7:AAA7)/COUNT($D$1:$AAA$1)</f>
-        <v>1.8333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -771,10 +789,13 @@
       <c r="I7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C8,$C$3:$C$26,0)</f>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -782,7 +803,7 @@
       </c>
       <c r="C8" s="6">
         <f>SUM(D8:AAA8)/COUNT($D$1:$AAA$1)</f>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -797,9 +818,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C9,$C$3:$C$26,0)</f>
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -807,7 +828,7 @@
       </c>
       <c r="C9" s="6">
         <f>SUM(D9:AAA9)/COUNT($D$1:$AAA$1)</f>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -816,9 +837,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C10,$C$3:$C$26,0)</f>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -826,7 +847,7 @@
       </c>
       <c r="C10" s="6">
         <f>SUM(D10:AAA10)/COUNT($D$1:$AAA$1)</f>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -838,151 +859,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C11,$C$3:$C$26,0)</f>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(D11:AAA11)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(C12,$C$3:$C$26,0)</f>
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <f>SUM(D12:AAA12)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>_xlfn.RANK.EQ(C13,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6">
         <f>SUM(D13:AAA13)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>_xlfn.RANK.EQ(C14,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6">
         <f>SUM(D14:AAA14)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>_xlfn.RANK.EQ(C15,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(D15:AAA15)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>_xlfn.RANK.EQ(C16,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6">
         <f>SUM(D16:AAA16)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D16" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>_xlfn.RANK.EQ(C17,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(D17:AAA17)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G17" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>_xlfn.RANK.EQ(C18,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6">
         <f>SUM(D18:AAA18)/COUNT($D$1:$AAA$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E18" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C19,$C$3:$C$26,0)</f>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6">
         <f>SUM(D19:AAA19)/COUNT($D$1:$AAA$1)</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C20,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
@@ -994,8 +1024,8 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C21,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -1007,8 +1037,8 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C22,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
@@ -1020,8 +1050,8 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C23,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
@@ -1033,8 +1063,8 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C24,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1046,8 +1076,8 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C25,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -1059,8 +1089,8 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>_xlfn.RANK.EQ(C26,$C$3:$C$26,0)</f>
+        <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
@@ -1071,7 +1101,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J26">
     <sortCondition descending="1" ref="C3:C26"/>
     <sortCondition ref="B3:B26"/>
   </sortState>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F01326-F01C-44D5-A46B-B440CAD1B358}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B81A60-536C-4F9F-BDBA-16D945DD5DE8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -550,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,11 +564,11 @@
     <col min="1" max="1" width="10.7109375" style="7"/>
     <col min="2" max="2" width="10.7109375" style="4"/>
     <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="4"/>
+    <col min="4" max="11" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -597,15 +597,18 @@
       <c r="J1" s="3">
         <v>45613</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="6">
-        <f>SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
-        <v>2.5714285714285716</v>
+        <f t="shared" ref="C2:C26" si="0">SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
+        <v>2.5</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -628,18 +631,21 @@
       <c r="J2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>_xlfn.RANK.EQ(C3,$C$3:$C$26,0)</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A26" si="1">_xlfn.RANK.EQ(C3,$C$3:$C$26,0)</f>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(D3:AAA3)/COUNT($D$1:$AAA$1)</f>
-        <v>5.4285714285714288</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
@@ -662,18 +668,21 @@
       <c r="J3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>_xlfn.RANK.EQ(C4,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(D4:AAA4)/COUNT($D$1:$AAA$1)</f>
-        <v>5.4285714285714288</v>
+        <f t="shared" si="0"/>
+        <v>5.75</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -696,18 +705,21 @@
       <c r="J4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>_xlfn.RANK.EQ(C5,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <f>SUM(D5:AAA5)/COUNT($D$1:$AAA$1)</f>
-        <v>3.8571428571428572</v>
+        <f t="shared" si="0"/>
+        <v>3.875</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -727,18 +739,21 @@
       <c r="J5" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>_xlfn.RANK.EQ(C6,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6">
-        <f>SUM(D6:AAA6)/COUNT($D$1:$AAA$1)</f>
-        <v>2.2857142857142856</v>
+        <f t="shared" si="0"/>
+        <v>2.125</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -761,17 +776,20 @@
       <c r="J6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>_xlfn.RANK.EQ(C7,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <f>SUM(D7:AAA7)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E7" s="4">
@@ -792,18 +810,21 @@
       <c r="J7" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>_xlfn.RANK.EQ(C8,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="6">
-        <f>SUM(D8:AAA8)/COUNT($D$1:$AAA$1)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -817,18 +838,21 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>_xlfn.RANK.EQ(C9,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <f>SUM(D9:AAA9)/COUNT($D$1:$AAA$1)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -836,18 +860,21 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f>_xlfn.RANK.EQ(C10,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <f>SUM(D10:AAA10)/COUNT($D$1:$AAA$1)</f>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -858,18 +885,21 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>_xlfn.RANK.EQ(C11,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6">
-        <f>SUM(D11:AAA11)/COUNT($D$1:$AAA$1)</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -877,18 +907,21 @@
       <c r="J11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>_xlfn.RANK.EQ(C12,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="6">
-        <f>SUM(D12:AAA12)/COUNT($D$1:$AAA$1)</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -896,207 +929,213 @@
       <c r="J12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>_xlfn.RANK.EQ(C13,$C$3:$C$26,0)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6">
-        <f>SUM(D13:AAA13)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>_xlfn.RANK.EQ(C14,$C$3:$C$26,0)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="6">
-        <f>SUM(D14:AAA14)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>_xlfn.RANK.EQ(C15,$C$3:$C$26,0)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="6">
-        <f>SUM(D15:AAA15)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>_xlfn.RANK.EQ(C16,$C$3:$C$26,0)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="6">
-        <f>SUM(D16:AAA16)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>_xlfn.RANK.EQ(C17,$C$3:$C$26,0)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6">
-        <f>SUM(D17:AAA17)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>_xlfn.RANK.EQ(C18,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="6">
-        <f>SUM(D18:AAA18)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>_xlfn.RANK.EQ(C19,$C$3:$C$26,0)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="6">
-        <f>SUM(D19:AAA19)/COUNT($D$1:$AAA$1)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>_xlfn.RANK.EQ(C20,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="6">
-        <f>SUM(D20:AAA20)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>_xlfn.RANK.EQ(C21,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="6">
-        <f>SUM(D21:AAA21)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>_xlfn.RANK.EQ(C22,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="6">
-        <f>SUM(D22:AAA22)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>_xlfn.RANK.EQ(C23,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="6">
-        <f>SUM(D23:AAA23)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>_xlfn.RANK.EQ(C24,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="6">
-        <f>SUM(D24:AAA24)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>_xlfn.RANK.EQ(C25,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="6">
-        <f>SUM(D25:AAA25)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f>_xlfn.RANK.EQ(C26,$C$3:$C$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="6">
-        <f>SUM(D26:AAA26)/COUNT($D$1:$AAA$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B81A60-536C-4F9F-BDBA-16D945DD5DE8}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FCD936C-87C0-47F8-AFCE-3E00B5B9D682}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>AT</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>_Gedenk</t>
+  </si>
+  <si>
+    <t>Sorter</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -176,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -197,6 +211,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,80 +573,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="7"/>
-    <col min="2" max="2" width="10.7109375" style="4"/>
-    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="4"/>
+    <col min="2" max="2" width="7.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
+    <col min="6" max="13" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45606</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45607</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45608</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45609</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45610</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45612</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45613</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>44521</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="M1" s="3">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6">
-        <f t="shared" ref="C2:C26" si="0">SUM(D2:AAA2)/COUNT($D$1:$AAA$1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>3</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
       </c>
       <c r="I2" s="4">
         <v>2</v>
@@ -634,57 +669,69 @@
       <c r="K2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A26" si="1">_xlfn.RANK.EQ(C3,$C$3:$C$26,0)</f>
+        <f>_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" si="0"/>
+      <c r="D3" s="6">
+        <f>SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>7</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>6</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <f>_xlfn.RANK.EQ(D4,$D$3:$D$26,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>5.75</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
+        <f>SUM(E4:AAB4)/COUNT($E$1:$AAB$1)</f>
         <v>6</v>
       </c>
       <c r="E4" s="4">
@@ -697,454 +744,552 @@
         <v>6</v>
       </c>
       <c r="H4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4">
         <v>5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(D5,$D$3:$D$26,0)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>3.875</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUM(E5:AAB5)/COUNT($E$1:$AAB$1)</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(D6,$D$3:$D$26,0)</f>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
+      <c r="D6" s="6">
+        <f>SUM(E6:AAB6)/COUNT($E$1:$AAB$1)</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
       <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(D7,$D$3:$D$26,0)</f>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
+      <c r="D7" s="6">
+        <f>SUM(E7:AAB7)/COUNT($E$1:$AAB$1)</f>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="K7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>_xlfn.RANK.EQ(D8,$D$3:$D$26,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(E8:AAB8)/COUNT($E$1:$AAB$1)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>_xlfn.RANK.EQ(D9,$D$3:$D$26,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <f>SUM(E9:AAB9)/COUNT($E$1:$AAB$1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>_xlfn.RANK.EQ(D10,$D$3:$D$26,0)</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
+      <c r="D10" s="6">
+        <f>SUM(E10:AAB10)/COUNT($E$1:$AAB$1)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>_xlfn.RANK.EQ(D11,$D$3:$D$26,0)</f>
+        <v>14</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <f>SUM(E11:AAB11)/COUNT($E$1:$AAB$1)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>_xlfn.RANK.EQ(D12,$D$3:$D$26,0)</f>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <f>SUM(E12:AAB12)/COUNT($E$1:$AAB$1)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>_xlfn.RANK.EQ(D13,$D$3:$D$26,0)</f>
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <f>SUM(E13:AAB13)/COUNT($E$1:$AAB$1)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>_xlfn.RANK.EQ(D14,$D$3:$D$26,0)</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SUM(E14:AAB14)/COUNT($E$1:$AAB$1)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>_xlfn.RANK.EQ(D15,$D$3:$D$26,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D15" s="6">
+        <f>SUM(E15:AAB15)/COUNT($E$1:$AAB$1)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>_xlfn.RANK.EQ(D16,$D$3:$D$26,0)</f>
+        <v>11</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6">
+        <f>SUM(E16:AAB16)/COUNT($E$1:$AAB$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>_xlfn.RANK.EQ(D17,$D$3:$D$26,0)</f>
+        <v>8</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="6">
+        <f>SUM(E17:AAB17)/COUNT($E$1:$AAB$1)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>_xlfn.RANK.EQ(D18,$D$3:$D$26,0)</f>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B18" s="9">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
+        <f>SUM(E18:AAB18)/COUNT($E$1:$AAB$1)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>_xlfn.RANK.EQ(D19,$D$3:$D$26,0)</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6">
+        <f>SUM(E19:AAB19)/COUNT($E$1:$AAB$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>_xlfn.RANK.EQ(D20,$D$3:$D$26,0)</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <f>SUM(E20:AAB20)/COUNT($E$1:$AAB$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>_xlfn.RANK.EQ(D21,$D$3:$D$26,0)</f>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(E21:AAB21)/COUNT($E$1:$AAB$1)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>_xlfn.RANK.EQ(D22,$D$3:$D$26,0)</f>
+        <v>18</v>
+      </c>
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(E22:AAB22)/COUNT($E$1:$AAB$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" ref="A3:A26" si="1">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
+        <v>18</v>
+      </c>
+      <c r="B23" s="9">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J26">
-    <sortCondition descending="1" ref="C3:C26"/>
-    <sortCondition ref="B3:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M22">
+    <sortCondition ref="B3:B22"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C26">
+  <conditionalFormatting sqref="D2:D26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1154,9 +1299,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:W1">
+  <conditionalFormatting sqref="E1:X1">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>SUM(D2:D31)=25</formula>
+      <formula>SUM(E2:E31)=25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FCD936C-87C0-47F8-AFCE-3E00B5B9D682}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0064FABC-7C11-48A5-8443-3CD0E91FB598}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,11 +589,11 @@
     <col min="3" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="13" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="4"/>
+    <col min="6" max="14" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -633,8 +633,11 @@
       <c r="M1" s="3">
         <v>45626</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -646,7 +649,7 @@
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
-        <v>2.3333333333333335</v>
+        <v>2.4</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -675,10 +678,13 @@
       <c r="M2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
+        <f t="shared" ref="A3:A22" si="1">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
       </c>
       <c r="B3" s="9">
@@ -688,8 +694,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
-        <v>5</v>
+        <f t="shared" ref="D3:D22" si="2">SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E3" s="4">
         <v>6</v>
@@ -718,10 +724,13 @@
       <c r="M3" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>_xlfn.RANK.EQ(D4,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B4" s="9">
@@ -731,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(E4:AAB4)/COUNT($E$1:$AAB$1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E4" s="4">
@@ -761,10 +770,13 @@
       <c r="M4" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>_xlfn.RANK.EQ(D5,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -774,8 +786,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <f>SUM(E5:AAB5)/COUNT($E$1:$AAB$1)</f>
-        <v>3.5555555555555554</v>
+        <f t="shared" si="2"/>
+        <v>3.7</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -801,10 +813,13 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>_xlfn.RANK.EQ(D6,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -814,8 +829,8 @@
         <v>4</v>
       </c>
       <c r="D6" s="6">
-        <f>SUM(E6:AAB6)/COUNT($E$1:$AAB$1)</f>
-        <v>2.2222222222222223</v>
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -844,10 +859,13 @@
       <c r="M6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>_xlfn.RANK.EQ(D7,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="9">
@@ -857,8 +875,8 @@
         <v>11</v>
       </c>
       <c r="D7" s="6">
-        <f>SUM(E7:AAB7)/COUNT($E$1:$AAB$1)</f>
-        <v>1.8888888888888888</v>
+        <f t="shared" si="2"/>
+        <v>1.7</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -885,9 +903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>_xlfn.RANK.EQ(D8,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -897,8 +915,8 @@
         <v>6</v>
       </c>
       <c r="D8" s="6">
-        <f>SUM(E8:AAB8)/COUNT($E$1:$AAB$1)</f>
-        <v>0.77777777777777779</v>
+        <f t="shared" si="2"/>
+        <v>0.9</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -918,10 +936,13 @@
       <c r="M8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>_xlfn.RANK.EQ(D9,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="9">
@@ -931,8 +952,8 @@
         <v>2</v>
       </c>
       <c r="D9" s="6">
-        <f>SUM(E9:AAB9)/COUNT($E$1:$AAB$1)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -944,9 +965,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f>_xlfn.RANK.EQ(D10,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="9">
@@ -956,8 +977,8 @@
         <v>3</v>
       </c>
       <c r="D10" s="6">
-        <f>SUM(E10:AAB10)/COUNT($E$1:$AAB$1)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -971,11 +992,14 @@
       <c r="L10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>_xlfn.RANK.EQ(D11,$D$3:$D$26,0)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
@@ -984,17 +1008,17 @@
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <f>SUM(E11:AAB11)/COUNT($E$1:$AAB$1)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>_xlfn.RANK.EQ(D12,$D$3:$D$26,0)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B12" s="9">
         <v>11</v>
@@ -1003,8 +1027,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <f>SUM(E12:AAB12)/COUNT($E$1:$AAB$1)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1019,10 +1043,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>_xlfn.RANK.EQ(D13,$D$3:$D$26,0)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>12</v>
@@ -1031,17 +1055,17 @@
         <v>10</v>
       </c>
       <c r="D13" s="6">
-        <f>SUM(E13:AAB13)/COUNT($E$1:$AAB$1)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>_xlfn.RANK.EQ(D14,$D$3:$D$26,0)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B14" s="9">
         <v>13</v>
@@ -1050,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="6">
-        <f>SUM(E14:AAB14)/COUNT($E$1:$AAB$1)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>_xlfn.RANK.EQ(D15,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B15" s="9">
@@ -1069,8 +1093,8 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <f>SUM(E15:AAB15)/COUNT($E$1:$AAB$1)</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1079,9 +1103,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>_xlfn.RANK.EQ(D16,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B16" s="9">
@@ -1091,8 +1115,8 @@
         <v>23</v>
       </c>
       <c r="D16" s="6">
-        <f>SUM(E16:AAB16)/COUNT($E$1:$AAB$1)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1104,10 +1128,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>_xlfn.RANK.EQ(D17,$D$3:$D$26,0)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -1116,8 +1140,8 @@
         <v>18</v>
       </c>
       <c r="D17" s="6">
-        <f>SUM(E17:AAB17)/COUNT($E$1:$AAB$1)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1132,9 +1156,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>_xlfn.RANK.EQ(D18,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B18" s="9">
@@ -1144,8 +1168,8 @@
         <v>17</v>
       </c>
       <c r="D18" s="6">
-        <f>SUM(E18:AAB18)/COUNT($E$1:$AAB$1)</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1154,9 +1178,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>_xlfn.RANK.EQ(D19,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="9">
@@ -1166,13 +1190,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="6">
-        <f>SUM(E19:AAB19)/COUNT($E$1:$AAB$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>_xlfn.RANK.EQ(D20,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="9">
@@ -1182,14 +1206,14 @@
         <v>19</v>
       </c>
       <c r="D20" s="6">
-        <f>SUM(E20:AAB20)/COUNT($E$1:$AAB$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>_xlfn.RANK.EQ(D21,$D$3:$D$26,0)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B21" s="9">
         <v>20</v>
@@ -1198,16 +1222,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="6">
-        <f>SUM(E21:AAB21)/COUNT($E$1:$AAB$1)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>_xlfn.RANK.EQ(D22,$D$3:$D$26,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B22" s="9">
@@ -1217,13 +1244,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="6">
-        <f>SUM(E22:AAB22)/COUNT($E$1:$AAB$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" ref="A3:A26" si="1">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
+        <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>18</v>
       </c>
       <c r="B23" s="9">
@@ -1237,9 +1264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B24" s="9">
@@ -1253,9 +1280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B25" s="9">
@@ -1269,9 +1296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B26" s="9">

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0064FABC-7C11-48A5-8443-3CD0E91FB598}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3536830F-E032-449A-95BC-D4776C9226C7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,11 +589,11 @@
     <col min="3" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="14" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="4"/>
+    <col min="6" max="16" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -636,8 +636,14 @@
       <c r="N1" s="3">
         <v>45637</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3">
+        <v>45654</v>
+      </c>
+      <c r="P1" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -649,7 +655,7 @@
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
-        <v>2.4</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -681,8 +687,14 @@
       <c r="N2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A22" si="1">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -695,7 +707,7 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D22" si="2">SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
-        <v>4.9000000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="E3" s="4">
         <v>6</v>
@@ -727,8 +739,14 @@
       <c r="N3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="4">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -741,7 +759,7 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -773,8 +791,14 @@
       <c r="N4" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -787,7 +811,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="2"/>
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -816,8 +840,14 @@
       <c r="N5" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -830,7 +860,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -862,8 +892,11 @@
       <c r="N6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -876,7 +909,7 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -902,8 +935,11 @@
       <c r="M7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -916,7 +952,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -939,8 +975,11 @@
       <c r="N8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -953,7 +992,7 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -964,8 +1003,11 @@
       <c r="L9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -995,11 +1037,14 @@
       <c r="N10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
@@ -1009,13 +1054,13 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1028,7 +1073,7 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1042,11 +1087,14 @@
       <c r="M12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="9">
         <v>12</v>
@@ -1056,16 +1104,16 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9">
         <v>13</v>
@@ -1075,16 +1123,19 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9">
         <v>14</v>
@@ -1094,7 +1145,7 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1102,8 +1153,11 @@
       <c r="M15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1116,7 +1170,7 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1131,7 +1185,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -1141,7 +1195,7 @@
       </c>
       <c r="D17" s="6">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1159,7 +1213,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="9">
         <v>17</v>
@@ -1169,7 +1223,7 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1213,7 +1267,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9">
         <v>20</v>
@@ -1223,7 +1277,7 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\2_EBT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{58CD08EA-CF41-4E70-8758-7E3B66DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3536830F-E032-449A-95BC-D4776C9226C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C758D2-0959-4EBD-B858-EA408431FBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -250,10 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,11 +585,11 @@
     <col min="3" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="16" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="4"/>
+    <col min="6" max="25" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -642,8 +638,35 @@
       <c r="P1" s="3">
         <v>45654</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3">
+        <v>45661</v>
+      </c>
+      <c r="R1" s="3">
+        <v>45661</v>
+      </c>
+      <c r="S1" s="3">
+        <v>45662</v>
+      </c>
+      <c r="T1" s="3">
+        <v>45662</v>
+      </c>
+      <c r="U1" s="3">
+        <v>45663</v>
+      </c>
+      <c r="V1" s="3">
+        <v>45667</v>
+      </c>
+      <c r="W1" s="3">
+        <v>45668</v>
+      </c>
+      <c r="X1" s="3">
+        <v>45674</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -655,7 +678,7 @@
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
-        <v>2.5833333333333335</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -693,8 +716,35 @@
       <c r="P2" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4">
+        <v>5</v>
+      </c>
+      <c r="S2" s="4">
+        <v>4</v>
+      </c>
+      <c r="T2" s="4">
+        <v>3</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A22" si="1">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -707,7 +757,7 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D22" si="2">SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
-        <v>5.25</v>
+        <v>5.0476190476190474</v>
       </c>
       <c r="E3" s="4">
         <v>6</v>
@@ -745,8 +795,35 @@
       <c r="P3" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" s="4">
+        <v>4</v>
+      </c>
+      <c r="S3" s="4">
+        <v>5</v>
+      </c>
+      <c r="T3" s="4">
+        <v>7</v>
+      </c>
+      <c r="U3" s="4">
+        <v>5</v>
+      </c>
+      <c r="V3" s="4">
+        <v>7</v>
+      </c>
+      <c r="W3" s="4">
+        <v>3</v>
+      </c>
+      <c r="X3" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -759,7 +836,7 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="2"/>
-        <v>6.166666666666667</v>
+        <v>6.6190476190476186</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -797,8 +874,35 @@
       <c r="P4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>6</v>
+      </c>
+      <c r="S4" s="4">
+        <v>5</v>
+      </c>
+      <c r="T4" s="4">
+        <v>6</v>
+      </c>
+      <c r="U4" s="4">
+        <v>8</v>
+      </c>
+      <c r="V4" s="4">
+        <v>9</v>
+      </c>
+      <c r="W4" s="4">
+        <v>12</v>
+      </c>
+      <c r="X4" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -811,7 +915,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>2.9047619047619047</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -846,8 +950,32 @@
       <c r="P5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4">
+        <v>4</v>
+      </c>
+      <c r="R5" s="4">
+        <v>3</v>
+      </c>
+      <c r="S5" s="4">
+        <v>3</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -860,7 +988,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="2"/>
-        <v>2.0833333333333335</v>
+        <v>2.2380952380952381</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -895,8 +1023,35 @@
       <c r="P6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -909,7 +1064,7 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1.3809523809523809</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -938,8 +1093,29 @@
       <c r="O7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>3</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -952,7 +1128,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>0.91666666666666663</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -978,11 +1154,26 @@
       <c r="P8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="4">
+        <v>2</v>
+      </c>
+      <c r="T8" s="4">
+        <v>2</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>8</v>
@@ -992,7 +1183,7 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -1006,11 +1197,17 @@
       <c r="O9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9">
         <v>9</v>
@@ -1020,7 +1217,7 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1040,11 +1237,26 @@
       <c r="P10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
@@ -1054,13 +1266,22 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1073,7 +1294,7 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1090,11 +1311,20 @@
       <c r="P12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9">
         <v>12</v>
@@ -1104,16 +1334,25 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9">
         <v>13</v>
@@ -1123,7 +1362,7 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1131,11 +1370,14 @@
       <c r="O14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9">
         <v>14</v>
@@ -1145,7 +1387,7 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1156,11 +1398,20 @@
       <c r="P15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9">
         <v>15</v>
@@ -1170,7 +1421,7 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1181,8 +1432,14 @@
       <c r="M16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1209,8 +1466,17 @@
       <c r="M17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1223,7 +1489,7 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1231,8 +1497,14 @@
       <c r="M18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1248,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1264,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1277,7 +1549,7 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -1285,8 +1557,14 @@
       <c r="N21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1302,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>18</v>
@@ -1318,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1334,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1350,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1380,7 +1658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:X1">
+  <conditionalFormatting sqref="E1:Y1">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>SUM(E2:E31)=25</formula>
     </cfRule>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\2_EBT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C758D2-0959-4EBD-B858-EA408431FBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDED8CA-FCA3-4D8D-8519-53048044F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
@@ -585,11 +585,11 @@
     <col min="3" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="25" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.7109375" style="4"/>
+    <col min="6" max="26" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -665,8 +665,11 @@
       <c r="Y1" s="3">
         <v>45675</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="3">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -678,7 +681,7 @@
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
-        <v>2.6666666666666665</v>
+        <v>2.6818181818181817</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -743,8 +746,11 @@
       <c r="Y2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A22" si="1">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -757,7 +763,7 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D22" si="2">SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
-        <v>5.0476190476190474</v>
+        <v>5.1363636363636367</v>
       </c>
       <c r="E3" s="4">
         <v>6</v>
@@ -822,8 +828,11 @@
       <c r="Y3" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -836,7 +845,7 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="2"/>
-        <v>6.6190476190476186</v>
+        <v>6.5909090909090908</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -901,8 +910,11 @@
       <c r="Y4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -915,7 +927,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="2"/>
-        <v>2.9047619047619047</v>
+        <v>2.8636363636363638</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -974,8 +986,11 @@
       <c r="Y5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -988,7 +1003,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="2"/>
-        <v>2.2380952380952381</v>
+        <v>2.2272727272727271</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1050,8 +1065,11 @@
       <c r="Y6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1064,7 +1082,7 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>1.3809523809523809</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1114,8 +1132,11 @@
       <c r="Y7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1128,7 +1149,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>0.90476190476190477</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1170,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1183,7 +1204,7 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -1203,8 +1224,11 @@
       <c r="Y9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1217,7 +1241,7 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="2"/>
-        <v>0.61904761904761907</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1252,11 +1276,14 @@
       <c r="Y10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
@@ -1266,7 +1293,7 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>0.19047619047619047</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1281,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1294,7 +1321,7 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1321,10 +1348,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9">
         <v>12</v>
@@ -1334,7 +1361,7 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>0.19047619047619047</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1349,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1362,7 +1389,7 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1374,10 +1401,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9">
         <v>14</v>
@@ -1387,7 +1414,7 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1408,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1421,7 +1448,7 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="2"/>
-        <v>0.23809523809523808</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1439,10 +1466,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -1452,7 +1479,7 @@
       </c>
       <c r="D17" s="6">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1475,11 +1502,14 @@
       <c r="Y17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>17</v>
@@ -1489,7 +1519,7 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>0.19047619047619047</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1504,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1520,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1536,10 +1566,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="9">
         <v>20</v>
@@ -1549,7 +1579,7 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="2"/>
-        <v>0.19047619047619047</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -1563,8 +1593,11 @@
       <c r="W21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1580,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>18</v>
@@ -1596,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1612,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1628,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1658,7 +1691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:Y1">
+  <conditionalFormatting sqref="E1:Z1">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>SUM(E2:E31)=25</formula>
     </cfRule>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDED8CA-FCA3-4D8D-8519-53048044F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7DB11-EA4C-4C83-A88C-5CB38A76954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -226,7 +226,19 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -569,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,11 +597,11 @@
     <col min="3" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="26" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.7109375" style="4"/>
+    <col min="6" max="27" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -668,8 +680,11 @@
       <c r="Z1" s="3">
         <v>45679</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="3">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -681,7 +696,7 @@
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
-        <v>2.6818181818181817</v>
+        <v>2.7826086956521738</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -749,8 +764,11 @@
       <c r="Z2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A22" si="1">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -763,7 +781,7 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D22" si="2">SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
-        <v>5.1363636363636367</v>
+        <v>5.2173913043478262</v>
       </c>
       <c r="E3" s="4">
         <v>6</v>
@@ -831,8 +849,11 @@
       <c r="Z3" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -845,7 +866,7 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="2"/>
-        <v>6.5909090909090908</v>
+        <v>6.5217391304347823</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -913,8 +934,11 @@
       <c r="Z4" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -927,7 +951,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="2"/>
-        <v>2.8636363636363638</v>
+        <v>2.7826086956521738</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -989,8 +1013,11 @@
       <c r="Z5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1003,7 +1030,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="2"/>
-        <v>2.2272727272727271</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1068,8 +1095,11 @@
       <c r="Z6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1082,7 +1112,7 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>1.3636363636363635</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1136,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1149,7 +1179,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>0.86363636363636365</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1190,8 +1220,11 @@
       <c r="X8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1204,7 +1237,7 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>0.45454545454545453</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -1228,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1241,7 +1274,7 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="2"/>
-        <v>0.63636363636363635</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1280,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1293,7 +1326,7 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1308,10 +1341,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>11</v>
@@ -1321,7 +1354,7 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>0.36363636363636365</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1348,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1361,7 +1394,7 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1376,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1389,7 +1422,7 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1401,10 +1434,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9">
         <v>14</v>
@@ -1414,7 +1447,7 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>0.31818181818181818</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1434,8 +1467,11 @@
       <c r="Y15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1448,7 +1484,7 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1463,13 +1499,16 @@
         <v>1</v>
       </c>
       <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -1479,7 +1518,7 @@
       </c>
       <c r="D17" s="6">
         <f t="shared" si="2"/>
-        <v>0.36363636363636365</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1519,7 +1558,7 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1569,7 +1608,7 @@
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9">
         <v>20</v>
@@ -1579,7 +1618,7 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -1691,8 +1730,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:Z1">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E1:CC1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>SUM(E2:E31)=25</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7DB11-EA4C-4C83-A88C-5CB38A76954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0EEDE-1A98-4132-A53B-1B5A5D1FC348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -581,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,11 +597,11 @@
     <col min="3" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="27" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.7109375" style="4"/>
+    <col min="6" max="30" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -683,8 +683,17 @@
       <c r="AA1" s="3">
         <v>45680</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="3">
+        <v>45681</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>45682</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -695,8 +704,8 @@
         <v>26</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D26" si="0">SUM(E2:AAB2)/COUNT($E$1:$AAB$1)</f>
-        <v>2.7826086956521738</v>
+        <f>SUM(E2:ZZ2)/COUNT($E$1:$ZZ$1)</f>
+        <v>2.9615384615384617</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -767,10 +776,19 @@
       <c r="AA2" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A22" si="1">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
+        <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
       </c>
       <c r="B3" s="9">
@@ -780,8 +798,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D22" si="2">SUM(E3:AAB3)/COUNT($E$1:$AAB$1)</f>
-        <v>5.2173913043478262</v>
+        <f t="shared" ref="D3:D26" si="1">SUM(E3:ZZ3)/COUNT($E$1:$ZZ$1)</f>
+        <v>5.2307692307692308</v>
       </c>
       <c r="E3" s="4">
         <v>6</v>
@@ -852,10 +870,19 @@
       <c r="AA3" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="9">
@@ -865,8 +892,8 @@
         <v>24</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="2"/>
-        <v>6.5217391304347823</v>
+        <f t="shared" si="1"/>
+        <v>6.615384615384615</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -937,10 +964,19 @@
       <c r="AA4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -950,8 +986,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="2"/>
-        <v>2.7826086956521738</v>
+        <f t="shared" si="1"/>
+        <v>2.8461538461538463</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -1016,10 +1052,19 @@
       <c r="AA5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -1029,8 +1074,8 @@
         <v>4</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="2"/>
-        <v>2.1739130434782608</v>
+        <f t="shared" si="1"/>
+        <v>2.0384615384615383</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1098,10 +1143,19 @@
       <c r="AA6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="9">
@@ -1111,8 +1165,8 @@
         <v>11</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="2"/>
-        <v>1.3043478260869565</v>
+        <f t="shared" si="1"/>
+        <v>1.2692307692307692</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1165,10 +1219,16 @@
       <c r="Z7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -1178,8 +1238,8 @@
         <v>6</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1223,10 +1283,13 @@
       <c r="AA8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="9">
@@ -1236,8 +1299,8 @@
         <v>2</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.43478260869565216</v>
+        <f t="shared" si="1"/>
+        <v>0.42307692307692307</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -1260,10 +1323,13 @@
       <c r="Z9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="9">
@@ -1273,8 +1339,8 @@
         <v>3</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="2"/>
-        <v>0.60869565217391308</v>
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1312,11 +1378,17 @@
       <c r="Z10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
@@ -1325,8 +1397,8 @@
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1341,9 +1413,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="9">
@@ -1353,8 +1425,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="2"/>
-        <v>0.34782608695652173</v>
+        <f t="shared" si="1"/>
+        <v>0.34615384615384615</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1380,11 +1452,14 @@
       <c r="Y12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B13" s="9">
         <v>12</v>
@@ -1393,8 +1468,8 @@
         <v>10</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="2"/>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1408,10 +1483,13 @@
       <c r="X13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B14" s="9">
@@ -1421,8 +1499,8 @@
         <v>5</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="2"/>
-        <v>0.13043478260869565</v>
+        <f t="shared" si="1"/>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1434,9 +1512,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="9">
@@ -1446,8 +1524,8 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="2"/>
-        <v>0.43478260869565216</v>
+        <f t="shared" si="1"/>
+        <v>0.42307692307692307</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1470,10 +1548,13 @@
       <c r="AA15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="9">
@@ -1483,8 +1564,8 @@
         <v>23</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.2608695652173913</v>
+        <f t="shared" si="1"/>
+        <v>0.23076923076923078</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1505,10 +1586,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -1517,8 +1598,8 @@
         <v>18</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="2"/>
-        <v>0.34782608695652173</v>
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1545,10 +1626,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B18" s="9">
         <v>17</v>
@@ -1557,8 +1638,8 @@
         <v>17</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="2"/>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1573,9 +1654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="9">
@@ -1585,14 +1666,17 @@
         <v>16</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <f>SUM(E19:ZZ19)/COUNT($E$1:$ZZ$1)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="9">
         <v>19</v>
@@ -1601,13 +1685,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="9">
@@ -1617,8 +1701,8 @@
         <v>20</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -1636,10 +1720,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B22" s="9">
         <v>21</v>
@@ -1648,14 +1732,14 @@
         <v>21</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
-        <v>18</v>
+        <f t="shared" ref="A23:A26" si="2">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
+        <v>19</v>
       </c>
       <c r="B23" s="9">
         <v>22</v>
@@ -1664,14 +1748,14 @@
         <v>12</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B24" s="9">
         <v>23</v>
@@ -1680,14 +1764,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B25" s="9">
         <v>24</v>
@@ -1696,14 +1780,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B26" s="9">
         <v>25</v>
@@ -1712,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1730,7 +1814,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:CC1">
+  <conditionalFormatting sqref="E1:ZZ1">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>SUM(E2:E31)=25</formula>
     </cfRule>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B1F179-EFBB-4A98-9683-A8739E360D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9FE57-B004-4E0D-AC93-13BD0880A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="32" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="33" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -691,8 +691,11 @@
       <c r="AF1" s="2">
         <v>45682</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="2">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -704,11 +707,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.8888888888888888</v>
+        <v>2.9285714285714284</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1155.5555555555554</v>
+        <v>1171.4285714285713</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -791,8 +794,11 @@
       <c r="AF2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -805,11 +811,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.2592592592592595</v>
+        <v>5.3571428571428568</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2103.7037037037039</v>
+        <v>2142.8571428571427</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -892,8 +898,11 @@
       <c r="AF3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -906,11 +915,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5185185185185182</v>
+        <v>6.5</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2607.4074074074074</v>
+        <v>2600</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -993,8 +1002,11 @@
       <c r="AF4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1007,11 +1019,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.8148148148148149</v>
+        <v>2.75</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>1125.9259259259259</v>
+        <v>1100</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1088,8 +1100,11 @@
       <c r="AF5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1102,11 +1117,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>2.1111111111111112</v>
+        <v>2.0357142857142856</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>844.44444444444446</v>
+        <v>814.28571428571422</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1187,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1200,11 +1215,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>533.33333333333326</v>
+        <v>514.28571428571433</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1267,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1280,11 +1295,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.85185185185185186</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>340.74074074074076</v>
+        <v>342.85714285714283</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1334,8 +1349,11 @@
       <c r="AF8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1348,11 +1366,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>177.77777777777777</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1381,8 +1399,11 @@
       <c r="AF9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1395,11 +1416,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.59259259259259256</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>237.03703703703704</v>
+        <v>242.85714285714286</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1443,8 +1464,11 @@
       <c r="AE10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1457,11 +1481,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>59.25925925925926</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1476,10 +1500,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
@@ -1489,11 +1513,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>133.33333333333331</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1523,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1536,11 +1560,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18518518518518517</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>74.074074074074062</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1558,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1571,11 +1595,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>59.25925925925926</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1590,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1603,11 +1627,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.40740740740740738</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>162.96296296296296</v>
+        <v>157.14285714285717</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1634,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1647,11 +1671,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1672,10 +1696,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -1685,11 +1709,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>133.33333333333331</v>
+        <v>157.14285714285717</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1718,8 +1742,11 @@
       <c r="AF17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1732,11 +1759,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>59.25925925925926</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1751,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1764,17 +1791,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>14.814814814814815</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1794,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1807,11 +1834,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.18518518518518517</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>74.074074074074062</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1829,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1849,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -1869,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1882,17 +1909,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>3.7037037037037035E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>14.814814814814815</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1912,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9FE57-B004-4E0D-AC93-13BD0880A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA399501-3D51-4EF7-8AE9-7F9226C12759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="33" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="34" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -694,8 +694,11 @@
       <c r="AG1" s="2">
         <v>45683</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -707,11 +710,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9285714285714284</v>
+        <v>2.9655172413793105</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1171.4285714285713</v>
+        <v>1186.2068965517242</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -797,8 +800,11 @@
       <c r="AG2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -811,11 +817,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.3571428571428568</v>
+        <v>5.4137931034482758</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2142.8571428571427</v>
+        <v>2165.5172413793102</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -901,8 +907,11 @@
       <c r="AG3" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -915,11 +924,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6.5172413793103452</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2606.8965517241381</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1005,8 +1014,11 @@
       <c r="AG4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1019,11 +1031,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.75</v>
+        <v>2.6551724137931036</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>1062.0689655172414</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1104,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1117,11 +1129,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>2.0357142857142856</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>814.28571428571422</v>
+        <v>800</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1201,8 +1213,11 @@
       <c r="AF6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1215,11 +1230,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2857142857142858</v>
+        <v>1.2758620689655173</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>514.28571428571433</v>
+        <v>510.34482758620692</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1281,8 +1296,11 @@
       <c r="AF7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1295,11 +1313,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>342.85714285714283</v>
+        <v>358.62068965517238</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1352,8 +1370,11 @@
       <c r="AG8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1366,11 +1387,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.48275862068965519</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>193.10344827586209</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1403,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1416,11 +1437,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.6071428571428571</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>242.85714285714286</v>
+        <v>248.27586206896555</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1467,8 +1488,11 @@
       <c r="AG10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1481,11 +1505,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>55.172413793103445</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1500,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1513,11 +1537,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.32142857142857145</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>128.57142857142858</v>
+        <v>124.13793103448278</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1547,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1560,11 +1584,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.17857142857142858</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>71.428571428571431</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1582,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1595,11 +1619,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>55.172413793103445</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1614,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1627,11 +1651,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.39285714285714285</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>157.14285714285717</v>
+        <v>165.51724137931035</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1657,8 +1681,11 @@
       <c r="AD15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1671,11 +1698,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.21428571428571427</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>85.714285714285708</v>
+        <v>82.758620689655174</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1696,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1709,11 +1736,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.39285714285714285</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>157.14285714285717</v>
+        <v>165.51724137931035</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1745,8 +1772,11 @@
       <c r="AG17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1759,11 +1789,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>55.172413793103445</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1778,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1791,17 +1821,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>14.285714285714286</v>
+        <v>13.793103448275861</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1821,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1834,11 +1864,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.17857142857142858</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>71.428571428571431</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1856,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1876,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -1896,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1909,17 +1939,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>14.285714285714286</v>
+        <v>13.793103448275861</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1939,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA399501-3D51-4EF7-8AE9-7F9226C12759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9A551-CCE1-4221-9F7D-006EA3889EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="34" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="35" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -697,8 +697,11 @@
       <c r="AH1" s="2">
         <v>45686</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -710,11 +713,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9655172413793105</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1186.2068965517242</v>
+        <v>1213.3333333333333</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -803,8 +806,11 @@
       <c r="AH2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -817,11 +823,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.4137931034482758</v>
+        <v>5.4333333333333336</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2165.5172413793102</v>
+        <v>2173.3333333333335</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -910,8 +916,11 @@
       <c r="AH3" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -924,11 +933,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5172413793103452</v>
+        <v>6.5</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2606.8965517241381</v>
+        <v>2600</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1017,8 +1026,11 @@
       <c r="AH4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1031,11 +1043,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.6551724137931036</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>1062.0689655172414</v>
+        <v>1026.6666666666667</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1116,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1216,8 +1228,11 @@
       <c r="AH6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1230,11 +1245,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2758620689655173</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>510.34482758620692</v>
+        <v>493.33333333333331</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1300,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1313,11 +1328,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.89655172413793105</v>
+        <v>0.9</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>358.62068965517238</v>
+        <v>360.00000000000006</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1373,8 +1388,11 @@
       <c r="AH8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1387,11 +1405,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.48275862068965519</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>193.10344827586209</v>
+        <v>186.66666666666669</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1424,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1437,11 +1455,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.62068965517241381</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>248.27586206896555</v>
+        <v>279.99999999999994</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1491,8 +1509,11 @@
       <c r="AH10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1505,11 +1526,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.13793103448275862</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>55.172413793103445</v>
+        <v>53.333333333333329</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1524,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1537,11 +1558,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.31034482758620691</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>124.13793103448278</v>
+        <v>120</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1571,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1584,11 +1605,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.17241379310344829</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>68.965517241379317</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1606,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1619,11 +1640,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.13793103448275862</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>55.172413793103445</v>
+        <v>53.333333333333329</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1638,10 +1659,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
@@ -1651,11 +1672,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.41379310344827586</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>165.51724137931035</v>
+        <v>186.66666666666669</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1684,8 +1705,11 @@
       <c r="AH15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1698,11 +1722,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.20689655172413793</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>82.758620689655174</v>
+        <v>80</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1726,7 +1750,7 @@
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -1736,11 +1760,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.41379310344827586</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>165.51724137931035</v>
+        <v>160</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1789,11 +1813,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.13793103448275862</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>55.172413793103445</v>
+        <v>53.333333333333329</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1821,11 +1845,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>3.4482758620689655E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>13.793103448275861</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -1864,11 +1888,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.17241379310344829</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>68.965517241379317</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1939,11 +1963,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>13.793103448275861</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9A551-CCE1-4221-9F7D-006EA3889EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC5B3D-79E9-4DD6-8192-0B84CB2D654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1"/>
+      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="35" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="36" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -700,8 +700,11 @@
       <c r="AI1" s="2">
         <v>45686</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="2">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -713,11 +716,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>3.0333333333333332</v>
+        <v>3</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1213.3333333333333</v>
+        <v>1200</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -809,8 +812,11 @@
       <c r="AI2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -823,11 +829,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.4333333333333336</v>
+        <v>5.5483870967741939</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2173.3333333333335</v>
+        <v>2219.3548387096776</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -919,8 +925,11 @@
       <c r="AI3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -933,11 +942,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6.5161290322580649</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2606.4516129032263</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1029,8 +1038,11 @@
       <c r="AI4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1043,11 +1055,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.5666666666666669</v>
+        <v>2.4838709677419355</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>1026.6666666666667</v>
+        <v>993.54838709677415</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1128,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1141,11 +1153,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.967741935483871</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>787.0967741935483</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1231,8 +1243,11 @@
       <c r="AI6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1245,11 +1260,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2333333333333334</v>
+        <v>1.2258064516129032</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>493.33333333333331</v>
+        <v>490.32258064516128</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1314,8 +1329,11 @@
       <c r="AH7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1328,11 +1346,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>360.00000000000006</v>
+        <v>361.29032258064512</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1391,8 +1409,11 @@
       <c r="AI8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1405,11 +1426,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>186.66666666666669</v>
+        <v>193.54838709677421</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1441,8 +1462,11 @@
       <c r="AG9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1455,11 +1479,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>279.99999999999994</v>
+        <v>270.96774193548384</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1513,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1526,11 +1550,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>53.333333333333329</v>
+        <v>51.612903225806448</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1545,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1558,11 +1582,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>129.03225806451613</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1591,11 +1615,14 @@
       <c r="AE12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -1605,11 +1632,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>66.666666666666657</v>
+        <v>77.41935483870968</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1626,8 +1653,11 @@
       <c r="AE13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1640,11 +1670,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>53.333333333333329</v>
+        <v>51.612903225806448</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1659,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1672,11 +1702,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>186.66666666666669</v>
+        <v>193.54838709677421</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1708,8 +1738,11 @@
       <c r="AI15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1722,11 +1755,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>77.41935483870968</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1760,11 +1793,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>154.83870967741936</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1813,11 +1846,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>53.333333333333329</v>
+        <v>51.612903225806448</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1845,11 +1878,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>13.333333333333332</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -1878,7 +1911,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -1888,11 +1921,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>66.666666666666657</v>
+        <v>64.516129032258064</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1963,11 +1996,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>13.333333333333332</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC5B3D-79E9-4DD6-8192-0B84CB2D654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99858447-EC45-4CA6-B3B0-5C703C5DF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
+      <selection pane="bottomRight" activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="36" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="37" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -703,8 +703,11 @@
       <c r="AJ1" s="2">
         <v>45687</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="2">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -716,11 +719,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>3</v>
+        <v>2.9375</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -815,8 +818,11 @@
       <c r="AJ2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -829,11 +835,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.5483870967741939</v>
+        <v>5.5625</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2219.3548387096776</v>
+        <v>2225</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -928,8 +934,11 @@
       <c r="AJ3" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -942,11 +951,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5161290322580649</v>
+        <v>6.5</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2606.4516129032263</v>
+        <v>2600</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1041,8 +1050,11 @@
       <c r="AJ4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1055,11 +1067,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4838709677419355</v>
+        <v>2.4375</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>993.54838709677415</v>
+        <v>975</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1139,8 +1151,11 @@
       <c r="AG5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1153,11 +1168,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.967741935483871</v>
+        <v>2.03125</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>787.0967741935483</v>
+        <v>812.5</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1246,8 +1261,11 @@
       <c r="AJ6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1260,11 +1278,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2258064516129032</v>
+        <v>1.1875</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>490.32258064516128</v>
+        <v>475</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1333,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1346,11 +1364,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.90322580645161288</v>
+        <v>0.875</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>361.29032258064512</v>
+        <v>350.00000000000006</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1413,10 +1431,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -1426,11 +1444,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.4838709677419355</v>
+        <v>0.46875</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>193.54838709677421</v>
+        <v>187.5</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1466,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1479,11 +1497,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.67741935483870963</v>
+        <v>0.6875</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>270.96774193548384</v>
+        <v>275</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1536,8 +1554,11 @@
       <c r="AI10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1550,11 +1571,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.12903225806451613</v>
+        <v>0.125</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>51.612903225806448</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1569,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1582,11 +1603,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.32258064516129031</v>
+        <v>0.34375</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>129.03225806451613</v>
+        <v>137.5</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1618,11 +1639,14 @@
       <c r="AJ12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -1632,11 +1656,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.19354838709677419</v>
+        <v>0.1875</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>77.41935483870968</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1657,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1670,11 +1694,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.12903225806451613</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>51.612903225806448</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1689,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1702,11 +1726,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.4838709677419355</v>
+        <v>0.5625</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>193.54838709677421</v>
+        <v>225</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1741,8 +1765,11 @@
       <c r="AJ15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1755,11 +1782,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.19354838709677419</v>
+        <v>0.21875</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>77.41935483870968</v>
+        <v>87.500000000000014</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1779,8 +1806,11 @@
       <c r="AB16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1793,11 +1823,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.38709677419354838</v>
+        <v>0.40625</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>154.83870967741936</v>
+        <v>162.5</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1832,8 +1862,11 @@
       <c r="AH17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1846,11 +1879,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.12903225806451613</v>
+        <v>0.125</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>51.612903225806448</v>
+        <v>50</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1865,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1878,17 +1911,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>3.2258064516129031E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>12.903225806451612</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1908,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1921,11 +1954,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.16129032258064516</v>
+        <v>0.15625</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>64.516129032258064</v>
+        <v>62.5</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1943,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1963,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -1983,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1996,17 +2029,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>3.2258064516129031E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>12.903225806451612</v>
+        <v>12.5</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2026,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99858447-EC45-4CA6-B3B0-5C703C5DF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B631D5B-50D3-444F-9E74-D07420EBB9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK18" sqref="AK18"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="37" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="39" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -706,8 +706,14 @@
       <c r="AK1" s="2">
         <v>45688</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="2">
+        <v>45690</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -719,11 +725,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9375</v>
+        <v>2.9117647058823528</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1175</v>
+        <v>1164.7058823529412</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -821,8 +827,14 @@
       <c r="AK2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -835,11 +847,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.5625</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2225</v>
+        <v>2282.3529411764707</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -937,8 +949,14 @@
       <c r="AK3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -951,11 +969,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6.5588235294117645</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2623.5294117647059</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1053,8 +1071,14 @@
       <c r="AK4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1067,11 +1091,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4375</v>
+        <v>2.4117647058823528</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>975</v>
+        <v>964.7058823529411</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1154,8 +1178,14 @@
       <c r="AK5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1168,11 +1198,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>2.03125</v>
+        <v>1.9705882352941178</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>812.5</v>
+        <v>788.23529411764707</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1264,8 +1294,14 @@
       <c r="AK6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1278,11 +1314,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1875</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>475</v>
+        <v>470.58823529411762</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1350,8 +1386,14 @@
       <c r="AJ7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1364,11 +1406,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>350.00000000000006</v>
+        <v>341.1764705882353</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1430,8 +1472,11 @@
       <c r="AJ8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1444,11 +1489,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.46875</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>187.5</v>
+        <v>188.23529411764704</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1483,8 +1528,11 @@
       <c r="AJ9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1497,11 +1545,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>270.58823529411768</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1557,11 +1605,14 @@
       <c r="AK10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -1571,11 +1622,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1590,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1603,11 +1654,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.34375</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>137.5</v>
+        <v>129.41176470588235</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1643,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1656,11 +1707,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.1875</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1681,10 +1732,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -1694,11 +1745,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1712,8 +1763,11 @@
       <c r="AF14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1726,11 +1780,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1769,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,11 +1836,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.21875</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>87.500000000000014</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1809,8 +1863,11 @@
       <c r="AK16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1823,11 +1880,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.40625</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>162.5</v>
+        <v>164.70588235294116</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1865,11 +1922,14 @@
       <c r="AK17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -1879,11 +1939,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1898,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1911,17 +1971,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>3.125E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1941,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1954,11 +2014,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.15625</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>62.5</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1976,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1996,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2016,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2029,17 +2089,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2059,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B631D5B-50D3-444F-9E74-D07420EBB9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772D42B-5A6A-47EC-A378-5B52E1AD3C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="39" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="40" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -712,8 +712,11 @@
       <c r="AM1" s="2">
         <v>45690</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="2">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -725,11 +728,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9117647058823528</v>
+        <v>2.9428571428571431</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1164.7058823529412</v>
+        <v>1177.1428571428571</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -833,8 +836,11 @@
       <c r="AM2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -847,11 +853,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.7058823529411766</v>
+        <v>5.8</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2282.3529411764707</v>
+        <v>2320</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -955,8 +961,11 @@
       <c r="AM3" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -969,11 +978,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5588235294117645</v>
+        <v>6.5428571428571427</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2623.5294117647059</v>
+        <v>2617.1428571428573</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1077,8 +1086,11 @@
       <c r="AM4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1091,11 +1103,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4117647058823528</v>
+        <v>2.4</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>964.7058823529411</v>
+        <v>960</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1184,8 +1196,11 @@
       <c r="AM5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1198,11 +1213,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.9705882352941178</v>
+        <v>1.9142857142857144</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>788.23529411764707</v>
+        <v>765.71428571428567</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1301,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1314,11 +1329,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1764705882352942</v>
+        <v>1.2</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>470.58823529411762</v>
+        <v>480</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1392,8 +1407,11 @@
       <c r="AM7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1406,11 +1424,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.8529411764705882</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>341.1764705882353</v>
+        <v>331.4285714285715</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1476,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1489,11 +1507,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.47058823529411764</v>
+        <v>0.48571428571428571</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>188.23529411764704</v>
+        <v>194.28571428571428</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1531,8 +1549,11 @@
       <c r="AM9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1545,11 +1566,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.67647058823529416</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>270.58823529411768</v>
+        <v>262.85714285714289</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1609,10 +1630,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -1622,11 +1643,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.11764705882352941</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>47.058823529411761</v>
+        <v>45.714285714285708</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1641,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1654,11 +1675,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.3235294117647059</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>129.41176470588235</v>
+        <v>125.71428571428572</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1694,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1707,11 +1728,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.17647058823529413</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>70.588235294117652</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1732,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1745,11 +1766,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>58.823529411764703</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1767,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1780,11 +1801,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.52941176470588236</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>211.76470588235293</v>
+        <v>205.71428571428569</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1823,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1836,11 +1857,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23529411764705882</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>94.117647058823522</v>
+        <v>91.428571428571416</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1867,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1880,11 +1901,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.41176470588235292</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>164.70588235294116</v>
+        <v>160</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1926,10 +1947,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -1939,11 +1960,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.11764705882352941</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>47.058823529411761</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1957,8 +1978,11 @@
       <c r="W18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1971,17 +1995,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>11.76470588235294</v>
+        <v>11.428571428571427</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2001,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2014,11 +2038,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>58.823529411764703</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2036,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2056,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2076,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2089,17 +2113,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.9411764705882353E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>11.76470588235294</v>
+        <v>11.428571428571427</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2119,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772D42B-5A6A-47EC-A378-5B52E1AD3C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDD823-8E95-472C-9C80-584DC15E4185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
+      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="40" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="42" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -715,8 +715,14 @@
       <c r="AN1" s="2">
         <v>45691</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="2">
+        <v>45693</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -728,11 +734,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9428571428571431</v>
+        <v>2.8378378378378377</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1177.1428571428571</v>
+        <v>1135.135135135135</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -839,8 +845,11 @@
       <c r="AN2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -853,11 +862,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8</v>
+        <v>5.7837837837837842</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2320</v>
+        <v>2313.5135135135138</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -964,8 +973,14 @@
       <c r="AN3" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -978,11 +993,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5428571428571427</v>
+        <v>6.5945945945945947</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2617.1428571428573</v>
+        <v>2637.8378378378379</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1089,8 +1104,14 @@
       <c r="AN4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1103,11 +1124,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>2.3783783783783785</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>960</v>
+        <v>951.35135135135135</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1199,8 +1220,14 @@
       <c r="AN5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1213,11 +1240,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.9142857142857144</v>
+        <v>1.9459459459459461</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>765.71428571428567</v>
+        <v>778.37837837837844</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1315,8 +1342,14 @@
       <c r="AM6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1329,11 +1362,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.2162162162162162</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>486.48648648648651</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1410,8 +1443,14 @@
       <c r="AN7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1424,11 +1463,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.82857142857142863</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>331.4285714285715</v>
+        <v>335.1351351351351</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1493,8 +1532,14 @@
       <c r="AL8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1507,11 +1552,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.48571428571428571</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>194.28571428571428</v>
+        <v>194.59459459459461</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1552,8 +1597,11 @@
       <c r="AN9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1566,11 +1614,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>262.85714285714289</v>
+        <v>270.27027027027026</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1629,8 +1677,14 @@
       <c r="AM10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1643,11 +1697,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.11428571428571428</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>45.714285714285708</v>
+        <v>43.243243243243242</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1662,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1675,11 +1729,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.31428571428571428</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>125.71428571428572</v>
+        <v>118.91891891891892</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1715,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1728,11 +1782,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.17142857142857143</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>68.571428571428569</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1753,10 +1807,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -1766,11 +1820,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>54.054054054054056</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1788,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1801,11 +1855,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.51428571428571423</v>
+        <v>0.56756756756756754</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>205.71428571428569</v>
+        <v>227.02702702702703</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1843,8 +1897,14 @@
       <c r="AK15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1857,11 +1917,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.22857142857142856</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>91.428571428571416</v>
+        <v>86.486486486486484</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1888,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1901,11 +1961,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>151.35135135135135</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1947,10 +2007,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -1960,11 +2020,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1981,8 +2041,11 @@
       <c r="AN18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1995,17 +2058,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.8571428571428571E-2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>11.428571428571427</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2025,10 +2088,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -2038,11 +2101,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2059,8 +2122,11 @@
       <c r="AA21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2080,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2100,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2113,17 +2179,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.8571428571428571E-2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>11.428571428571427</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2143,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDD823-8E95-472C-9C80-584DC15E4185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B2549-3B48-4171-ACD1-D569D8C93EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AP26"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="42" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="43" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -721,8 +721,11 @@
       <c r="AP1" s="2">
         <v>45696</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="2">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -734,11 +737,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.8378378378378377</v>
+        <v>2.8421052631578947</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1135.135135135135</v>
+        <v>1136.8421052631579</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -848,8 +851,11 @@
       <c r="AO2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -862,11 +868,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.7837837837837842</v>
+        <v>5.8157894736842106</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2313.5135135135138</v>
+        <v>2326.3157894736842</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -979,8 +985,11 @@
       <c r="AP3" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -993,11 +1002,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5945945945945947</v>
+        <v>6.5789473684210522</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2637.8378378378379</v>
+        <v>2631.5789473684208</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1110,8 +1119,11 @@
       <c r="AP4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1124,11 +1136,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.3783783783783785</v>
+        <v>2.3947368421052633</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>951.35135135135135</v>
+        <v>957.89473684210532</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1226,8 +1238,11 @@
       <c r="AP5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1240,11 +1255,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.9459459459459461</v>
+        <v>1.9736842105263157</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>778.37837837837844</v>
+        <v>789.47368421052624</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1348,8 +1363,11 @@
       <c r="AP6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1362,11 +1380,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2162162162162162</v>
+        <v>1.1842105263157894</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>486.48648648648651</v>
+        <v>473.68421052631572</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1450,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1463,11 +1481,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.83783783783783783</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>335.1351351351351</v>
+        <v>326.31578947368422</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1539,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1552,11 +1570,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.48648648648648651</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>194.59459459459461</v>
+        <v>189.4736842105263</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1601,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1614,11 +1632,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.67567567567567566</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>270.27027027027026</v>
+        <v>263.15789473684214</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1684,10 +1702,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.10810810810810811</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>43.243243243243242</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1715,8 +1733,11 @@
       <c r="Z11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1729,11 +1750,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.29729729729729731</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>118.91891891891892</v>
+        <v>115.78947368421053</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1769,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1782,11 +1803,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.16216216216216217</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>64.86486486486487</v>
+        <v>73.684210526315795</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1806,8 +1827,11 @@
       <c r="AJ13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1820,11 +1844,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.13513513513513514</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>54.054054054054056</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1842,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1855,11 +1879,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.56756756756756754</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>227.02702702702703</v>
+        <v>221.0526315789474</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1904,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1917,11 +1941,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.21621621621621623</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>86.486486486486484</v>
+        <v>94.73684210526315</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1945,6 +1969,9 @@
         <v>1</v>
       </c>
       <c r="AL16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1961,11 +1988,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.3783783783783784</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>151.35135135135135</v>
+        <v>147.36842105263159</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2010,7 +2037,7 @@
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -2020,11 +2047,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.16216216216216217</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>64.86486486486487</v>
+        <v>63.157894736842103</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2058,11 +2085,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.7027027027027029E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>10.810810810810811</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2091,7 +2118,7 @@
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -2101,11 +2128,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.16216216216216217</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>64.86486486486487</v>
+        <v>63.157894736842103</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2179,11 +2206,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.7027027027027029E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>10.810810810810811</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B2549-3B48-4171-ACD1-D569D8C93EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF5C039-6FD9-46D4-80D3-D39B6F542F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
+      <selection pane="bottomRight" activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="43" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="44" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -724,8 +724,11 @@
       <c r="AQ1" s="2">
         <v>45697</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -737,11 +740,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.8421052631578947</v>
+        <v>2.8461538461538463</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1136.8421052631579</v>
+        <v>1138.4615384615386</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -854,8 +857,11 @@
       <c r="AQ2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -868,11 +874,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8157894736842106</v>
+        <v>5.8717948717948714</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2326.3157894736842</v>
+        <v>2348.7179487179487</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -988,8 +994,11 @@
       <c r="AQ3" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1002,11 +1011,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5789473684210522</v>
+        <v>6.615384615384615</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2631.5789473684208</v>
+        <v>2646.1538461538457</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1122,8 +1131,11 @@
       <c r="AQ4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1136,11 +1148,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.3947368421052633</v>
+        <v>2.4102564102564101</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>957.89473684210532</v>
+        <v>964.10256410256409</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1241,8 +1253,11 @@
       <c r="AQ5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1255,11 +1270,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.9736842105263157</v>
+        <v>1.9487179487179487</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>789.47368421052624</v>
+        <v>779.48717948717956</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1366,8 +1381,11 @@
       <c r="AQ6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1380,11 +1398,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1842105263157894</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>473.68421052631572</v>
+        <v>461.53846153846149</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1468,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1481,11 +1499,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.81578947368421051</v>
+        <v>0.79487179487179482</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>326.31578947368422</v>
+        <v>317.94871794871796</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1557,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1570,11 +1588,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.47368421052631576</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>189.4736842105263</v>
+        <v>184.61538461538464</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1619,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1632,11 +1650,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.65789473684210531</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>263.15789473684214</v>
+        <v>276.92307692307691</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1701,8 +1719,11 @@
       <c r="AP10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1715,11 +1736,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.13157894736842105</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>52.631578947368418</v>
+        <v>51.28205128205127</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1737,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1750,11 +1771,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.28947368421052633</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>115.78947368421053</v>
+        <v>112.82051282051282</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1790,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1803,11 +1824,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18421052631578946</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>73.684210526315795</v>
+        <v>71.794871794871796</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1831,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1844,11 +1865,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.13157894736842105</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>52.631578947368418</v>
+        <v>51.28205128205127</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1866,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1879,11 +1900,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.55263157894736847</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>221.0526315789474</v>
+        <v>215.38461538461539</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1928,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1941,11 +1962,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23684210526315788</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>94.73684210526315</v>
+        <v>92.307692307692321</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1988,11 +2009,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.36842105263157893</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>147.36842105263159</v>
+        <v>143.58974358974359</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2047,11 +2068,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>63.157894736842103</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2085,11 +2106,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.6315789473684209E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>10.526315789473683</v>
+        <v>10.256410256410257</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2128,11 +2149,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>63.157894736842103</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2206,11 +2227,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.6315789473684209E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>10.526315789473683</v>
+        <v>10.256410256410257</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF5C039-6FD9-46D4-80D3-D39B6F542F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698B957-659B-4E51-895A-1B3CB0C85EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AR26"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR11" sqref="AR11"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="44" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="45" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -727,8 +727,11 @@
       <c r="AR1" s="2">
         <v>45701</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" s="2">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -740,11 +743,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.8461538461538463</v>
+        <v>2.95</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1138.4615384615386</v>
+        <v>1180</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -860,8 +863,11 @@
       <c r="AR2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -874,11 +880,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8717948717948714</v>
+        <v>5.875</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2348.7179487179487</v>
+        <v>2350</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -997,8 +1003,11 @@
       <c r="AR3" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1011,11 +1020,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.615384615384615</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2646.1538461538457</v>
+        <v>2630</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1134,8 +1143,11 @@
       <c r="AR4" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1148,11 +1160,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4102564102564101</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>964.10256410256409</v>
+        <v>969.99999999999989</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1256,8 +1268,11 @@
       <c r="AR5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1270,11 +1285,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.9487179487179487</v>
+        <v>1.925</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>779.48717948717956</v>
+        <v>770</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1384,8 +1399,11 @@
       <c r="AR6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1398,11 +1416,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1538461538461537</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>461.53846153846149</v>
+        <v>460</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1485,8 +1503,11 @@
       <c r="AP7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1499,11 +1520,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.79487179487179482</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>317.94871794871796</v>
+        <v>310</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1575,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1588,11 +1609,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
+        <v>0.45</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>184.61538461538464</v>
+        <v>180.00000000000003</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1637,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1650,11 +1671,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>276.92307692307691</v>
+        <v>279.99999999999994</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1722,8 +1743,11 @@
       <c r="AR10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1736,11 +1760,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.12820512820512819</v>
+        <v>0.125</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>51.28205128205127</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1758,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1771,11 +1795,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.28205128205128205</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>112.82051282051282</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1811,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1824,11 +1848,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.17948717948717949</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>71.794871794871796</v>
+        <v>69.999999999999986</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1852,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1865,11 +1889,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.12820512820512819</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>51.28205128205127</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1887,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1900,11 +1924,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>215.38461538461539</v>
+        <v>210</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1949,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1962,11 +1986,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>92.307692307692321</v>
+        <v>90.000000000000014</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1996,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2009,11 +2033,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.35897435897435898</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>143.58974358974359</v>
+        <v>150</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2054,8 +2078,11 @@
       <c r="AM17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2068,11 +2095,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
+        <v>0.15</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>61.53846153846154</v>
+        <v>60</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2093,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2106,17 +2133,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.564102564102564E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>10.256410256410257</v>
+        <v>10</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2136,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2149,11 +2176,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
+        <v>0.15</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>61.53846153846154</v>
+        <v>60</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2174,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2194,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2214,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2227,17 +2254,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.564102564102564E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>10.256410256410257</v>
+        <v>10</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2257,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698B957-659B-4E51-895A-1B3CB0C85EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94300E56-525D-4C4E-B155-041C6FCAD754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomRight" activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="45" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="46" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -730,8 +730,11 @@
       <c r="AS1" s="2">
         <v>45702</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT1" s="2">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -743,11 +746,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.95</v>
+        <v>2.975609756097561</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1180</v>
+        <v>1190.2439024390244</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -866,8 +869,11 @@
       <c r="AS2" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -880,11 +886,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.875</v>
+        <v>5.8048780487804876</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2350</v>
+        <v>2321.9512195121952</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1006,8 +1012,11 @@
       <c r="AS3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1020,11 +1029,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.5750000000000002</v>
+        <v>6.6829268292682924</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2630</v>
+        <v>2673.1707317073174</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1146,8 +1155,11 @@
       <c r="AS4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1160,11 +1172,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4249999999999998</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>969.99999999999989</v>
+        <v>975.60975609756099</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1271,8 +1283,11 @@
       <c r="AS5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1285,11 +1300,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.925</v>
+        <v>1.9024390243902438</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>770</v>
+        <v>760.97560975609758</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1402,8 +1417,11 @@
       <c r="AS6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1416,11 +1434,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
+        <v>1.1463414634146341</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>458.53658536585363</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1506,8 +1524,11 @@
       <c r="AS7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1520,11 +1541,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>310</v>
+        <v>302.4390243902439</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1596,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1609,11 +1630,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>180.00000000000003</v>
+        <v>185.36585365853662</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1657,8 +1678,11 @@
       <c r="AP9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1671,11 +1695,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.68292682926829273</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>279.99999999999994</v>
+        <v>273.17073170731709</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1747,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1760,11 +1784,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1782,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1795,11 +1819,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>110.00000000000001</v>
+        <v>107.31707317073172</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1835,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1848,11 +1872,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>69.999999999999986</v>
+        <v>78.048780487804876</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1875,8 +1899,11 @@
       <c r="AQ13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1889,11 +1916,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1911,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1924,11 +1951,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>204.8780487804878</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1973,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1986,11 +2013,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>90.000000000000014</v>
+        <v>87.804878048780495</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2033,11 +2060,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>146.34146341463415</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2095,11 +2122,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>58.536585365853661</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2133,11 +2160,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2176,11 +2203,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>58.536585365853661</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2254,11 +2281,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94300E56-525D-4C4E-B155-041C6FCAD754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA26E27-33C2-403D-99FB-66F419741DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AT26"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT1" sqref="AT1"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +590,11 @@
     <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="46" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="10.7109375" style="3"/>
+    <col min="7" max="47" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -733,8 +733,11 @@
       <c r="AT1" s="2">
         <v>45704</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1" s="2">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -746,11 +749,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.975609756097561</v>
+        <v>2.9761904761904763</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1190.2439024390244</v>
+        <v>1190.4761904761906</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -872,8 +875,11 @@
       <c r="AT2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -886,11 +892,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8048780487804876</v>
+        <v>5.8095238095238093</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2321.9512195121952</v>
+        <v>2323.8095238095239</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1015,8 +1021,11 @@
       <c r="AT3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1029,11 +1038,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.6829268292682924</v>
+        <v>6.6904761904761907</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2673.1707317073174</v>
+        <v>2676.1904761904766</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1158,8 +1167,11 @@
       <c r="AT4" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1172,11 +1184,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4390243902439024</v>
+        <v>2.4047619047619047</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>975.60975609756099</v>
+        <v>961.90476190476193</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1286,8 +1298,11 @@
       <c r="AT5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1300,11 +1315,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.9024390243902438</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>760.97560975609758</v>
+        <v>742.85714285714289</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1421,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1434,11 +1449,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1463414634146341</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>458.53658536585363</v>
+        <v>476.19047619047615</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1527,8 +1542,11 @@
       <c r="AT7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1541,11 +1559,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.75609756097560976</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>302.4390243902439</v>
+        <v>314.28571428571433</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1616,8 +1634,11 @@
       <c r="AP8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1630,11 +1651,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.46341463414634149</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>185.36585365853662</v>
+        <v>180.95238095238093</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1682,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1695,11 +1716,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.68292682926829273</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>273.17073170731709</v>
+        <v>276.1904761904762</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1770,11 +1791,14 @@
       <c r="AS10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -1784,11 +1808,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.12195121951219512</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>48.780487804878049</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1805,8 +1829,11 @@
       <c r="AQ11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1819,11 +1846,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.26829268292682928</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>107.31707317073172</v>
+        <v>104.76190476190477</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1859,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1872,11 +1899,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.1951219512195122</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>78.048780487804876</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1903,10 +1930,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -1916,11 +1943,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.12195121951219512</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>48.780487804878049</v>
+        <v>47.619047619047613</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1938,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1951,11 +1978,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.51219512195121952</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>204.8780487804878</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2000,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2013,11 +2040,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.21951219512195122</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>87.804878048780495</v>
+        <v>95.238095238095227</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2044,6 +2071,9 @@
         <v>1</v>
       </c>
       <c r="AQ16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2060,11 +2090,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.36585365853658536</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>146.34146341463415</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2122,11 +2152,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.14634146341463414</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>58.536585365853661</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2160,11 +2190,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.4390243902439025E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>9.7560975609756095</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2203,11 +2233,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.14634146341463414</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>58.536585365853661</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2281,11 +2311,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.4390243902439025E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>9.7560975609756095</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA26E27-33C2-403D-99FB-66F419741DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54986672-1745-4FCF-8F88-54282A71F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AU26"/>
+  <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1"/>
+      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,10 +591,11 @@
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
     <col min="7" max="47" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="10.7109375" style="3"/>
+    <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
+    <col min="49" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="AU1" s="2">
         <v>45705</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV1" s="2">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -749,11 +753,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9761904761904763</v>
+        <v>2.9767441860465116</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1190.4761904761906</v>
+        <v>1190.6976744186045</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -878,8 +882,11 @@
       <c r="AU2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -892,11 +899,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8095238095238093</v>
+        <v>5.8139534883720927</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2323.8095238095239</v>
+        <v>2325.5813953488373</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1024,8 +1031,11 @@
       <c r="AU3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1038,11 +1048,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.6904761904761907</v>
+        <v>6.7209302325581399</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2676.1904761904766</v>
+        <v>2688.3720930232557</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1170,8 +1180,11 @@
       <c r="AU4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1184,11 +1197,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4047619047619047</v>
+        <v>2.4651162790697674</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>961.90476190476193</v>
+        <v>986.04651162790697</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1301,8 +1314,11 @@
       <c r="AU5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1315,11 +1331,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.8571428571428572</v>
+        <v>1.8139534883720929</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>742.85714285714289</v>
+        <v>725.58139534883719</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1436,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1449,11 +1465,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1904761904761905</v>
+        <v>1.1627906976744187</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>476.19047619047615</v>
+        <v>465.11627906976742</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1546,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1559,11 +1575,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.7857142857142857</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>314.28571428571433</v>
+        <v>316.27906976744185</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1637,8 +1653,11 @@
       <c r="AU8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1651,11 +1670,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.45238095238095238</v>
+        <v>0.44186046511627908</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>180.95238095238093</v>
+        <v>176.74418604651163</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1703,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1716,11 +1735,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.69047619047619047</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>276.1904761904762</v>
+        <v>269.76744186046511</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1795,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1808,11 +1827,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1833,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1846,11 +1865,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.26190476190476192</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>104.76190476190477</v>
+        <v>102.32558139534885</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1886,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1899,11 +1918,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.19047619047619047</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>76.19047619047619</v>
+        <v>74.418604651162781</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1930,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1943,11 +1962,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.11904761904761904</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>47.619047619047613</v>
+        <v>46.511627906976742</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1965,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1978,11 +1997,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>195.3488372093023</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2027,10 +2046,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -2040,11 +2059,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>95.238095238095227</v>
+        <v>102.32558139534885</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2076,8 +2095,11 @@
       <c r="AU16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AV16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2090,11 +2112,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>142.85714285714286</v>
+        <v>148.83720930232556</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2138,8 +2160,11 @@
       <c r="AS17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AV17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2152,11 +2177,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2177,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2190,17 +2215,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>9.5238095238095237</v>
+        <v>9.3023255813953476</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2220,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2233,11 +2258,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2258,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2278,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2298,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2311,17 +2336,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>9.5238095238095237</v>
+        <v>9.3023255813953476</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2341,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54986672-1745-4FCF-8F88-54282A71F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4167078B-2971-4DEA-93F6-0021437ACC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AV26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,10 +592,13 @@
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
     <col min="7" max="47" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
-    <col min="49" max="16384" width="10.7109375" style="3"/>
+    <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -740,8 +743,20 @@
       <c r="AV1" s="2">
         <v>45708</v>
       </c>
+      <c r="AW1" s="2">
+        <v>45709</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>45710</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>45712</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>45712</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -753,11 +768,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9767441860465116</v>
+        <v>2.9574468085106385</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1190.6976744186045</v>
+        <v>1182.9787234042553</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -885,8 +900,17 @@
       <c r="AV2" s="3">
         <v>3</v>
       </c>
+      <c r="AW2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -899,11 +923,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8139534883720927</v>
+        <v>5.9361702127659575</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2325.5813953488373</v>
+        <v>2374.4680851063831</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1034,8 +1058,20 @@
       <c r="AV3" s="3">
         <v>6</v>
       </c>
+      <c r="AW3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1048,11 +1084,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.7209302325581399</v>
+        <v>6.8510638297872344</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2688.3720930232557</v>
+        <v>2740.4255319148942</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1183,8 +1219,20 @@
       <c r="AV4" s="3">
         <v>8</v>
       </c>
+      <c r="AW4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>12</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1197,11 +1245,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4651162790697674</v>
+        <v>2.4255319148936172</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>986.04651162790697</v>
+        <v>970.21276595744689</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1317,8 +1365,17 @@
       <c r="AV5" s="3">
         <v>5</v>
       </c>
+      <c r="AW5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1331,11 +1388,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.8139534883720929</v>
+        <v>1.7659574468085106</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>725.58139534883719</v>
+        <v>706.38297872340422</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1451,8 +1508,17 @@
       <c r="AT6" s="3">
         <v>1</v>
       </c>
+      <c r="AW6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1465,11 +1531,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1627906976744187</v>
+        <v>1.1702127659574468</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>465.11627906976742</v>
+        <v>468.08510638297872</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1561,8 +1627,14 @@
       <c r="AU7" s="3">
         <v>3</v>
       </c>
+      <c r="AX7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1575,11 +1647,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.79069767441860461</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>316.27906976744185</v>
+        <v>297.87234042553189</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1656,8 +1728,11 @@
       <c r="AV8" s="3">
         <v>1</v>
       </c>
+      <c r="AW8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1670,11 +1745,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.44186046511627908</v>
+        <v>0.40425531914893614</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>176.74418604651163</v>
+        <v>161.70212765957447</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1722,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1735,11 +1810,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.67441860465116277</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>269.76744186046511</v>
+        <v>255.31914893617022</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1813,8 +1888,11 @@
       <c r="AU10" s="3">
         <v>1</v>
       </c>
+      <c r="AX10" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1827,11 +1905,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.13953488372093023</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>55.813953488372093</v>
+        <v>68.085106382978722</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1851,8 +1929,14 @@
       <c r="AU11" s="3">
         <v>1</v>
       </c>
+      <c r="AX11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1865,11 +1949,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.2558139534883721</v>
+        <v>0.25531914893617019</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>102.32558139534885</v>
+        <v>102.12765957446808</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1904,8 +1988,11 @@
       <c r="AK12" s="3">
         <v>1</v>
       </c>
+      <c r="AX12" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1918,11 +2005,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18604651162790697</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>74.418604651162781</v>
+        <v>76.595744680851055</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1948,11 +2035,14 @@
       <c r="AT13" s="3">
         <v>1</v>
       </c>
+      <c r="AW13" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -1962,11 +2052,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.11627906976744186</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>46.511627906976742</v>
+        <v>51.063829787234042</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1983,8 +2073,11 @@
       <c r="AL14" s="3">
         <v>1</v>
       </c>
+      <c r="AY14" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1997,11 +2090,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.48837209302325579</v>
+        <v>0.46808510638297873</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>195.3488372093023</v>
+        <v>187.2340425531915</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2045,11 +2138,14 @@
       <c r="AP15" s="3">
         <v>2</v>
       </c>
+      <c r="AZ15" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -2059,11 +2155,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.2558139534883721</v>
+        <v>0.23404255319148937</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>102.32558139534885</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2099,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2112,11 +2208,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.37209302325581395</v>
+        <v>0.36170212765957449</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>148.83720930232556</v>
+        <v>144.68085106382978</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2163,11 +2259,14 @@
       <c r="AV17" s="3">
         <v>1</v>
       </c>
+      <c r="AW17" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -2177,11 +2276,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.13953488372093023</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>55.813953488372093</v>
+        <v>51.063829787234042</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2202,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2215,17 +2314,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.3255813953488372E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>9.3023255813953476</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2245,10 +2344,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -2258,11 +2357,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.13953488372093023</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>55.813953488372093</v>
+        <v>51.063829787234042</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2283,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2303,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2323,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2336,17 +2435,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.3255813953488372E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>9.3023255813953476</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2366,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4167078B-2971-4DEA-93F6-0021437ACC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AD0E9-5484-41A9-A22A-2F52680417A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:AZ26"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1"/>
+      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="53" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -755,8 +755,11 @@
       <c r="AZ1" s="2">
         <v>45712</v>
       </c>
+      <c r="BA1" s="2">
+        <v>45713</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -768,11 +771,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9574468085106385</v>
+        <v>2.9375</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1182.9787234042553</v>
+        <v>1175</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -909,8 +912,11 @@
       <c r="AY2" s="3">
         <v>5</v>
       </c>
+      <c r="BA2" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -923,11 +929,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.9361702127659575</v>
+        <v>5.895833333333333</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2374.4680851063831</v>
+        <v>2358.333333333333</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1070,8 +1076,11 @@
       <c r="AZ3" s="3">
         <v>9</v>
       </c>
+      <c r="BA3" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1084,11 +1093,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.8510638297872344</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2740.4255319148942</v>
+        <v>2741.6666666666665</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1231,8 +1240,11 @@
       <c r="AZ4" s="3">
         <v>7</v>
       </c>
+      <c r="BA4" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1245,11 +1257,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4255319148936172</v>
+        <v>2.4375</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>970.21276595744689</v>
+        <v>975</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1374,8 +1386,11 @@
       <c r="AZ5" s="3">
         <v>3</v>
       </c>
+      <c r="BA5" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1388,11 +1403,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.7659574468085106</v>
+        <v>1.7916666666666667</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>706.38297872340422</v>
+        <v>716.66666666666674</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1517,8 +1532,11 @@
       <c r="AZ6" s="3">
         <v>2</v>
       </c>
+      <c r="BA6" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1531,11 +1549,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1702127659574468</v>
+        <v>1.1875</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>468.08510638297872</v>
+        <v>475</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1633,8 +1651,11 @@
       <c r="AZ7" s="3">
         <v>2</v>
       </c>
+      <c r="BA7" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1647,11 +1668,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.74468085106382975</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>297.87234042553189</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1731,8 +1752,11 @@
       <c r="AW8" s="3">
         <v>1</v>
       </c>
+      <c r="BA8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1745,11 +1769,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.40425531914893614</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>161.70212765957447</v>
+        <v>158.33333333333331</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1797,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1810,11 +1834,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.63829787234042556</v>
+        <v>0.625</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>255.31914893617022</v>
+        <v>250</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1892,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1905,11 +1929,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.1702127659574468</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>68.085106382978722</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1936,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1949,11 +1973,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.25531914893617019</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>102.12765957446808</v>
+        <v>108.33333333333331</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1991,8 +2015,11 @@
       <c r="AX12" s="3">
         <v>1</v>
       </c>
+      <c r="BA12" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2005,11 +2032,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.19148936170212766</v>
+        <v>0.1875</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>76.595744680851055</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2039,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2052,11 +2079,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>51.063829787234042</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2077,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2090,11 +2117,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.46808510638297873</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>187.2340425531915</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2142,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2155,11 +2182,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23404255319148937</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>93.61702127659575</v>
+        <v>100</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2194,8 +2221,11 @@
       <c r="AV16" s="3">
         <v>1</v>
       </c>
+      <c r="BA16" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2208,11 +2238,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.36170212765957449</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>144.68085106382978</v>
+        <v>150</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2262,8 +2292,11 @@
       <c r="AW17" s="3">
         <v>1</v>
       </c>
+      <c r="BA17" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2276,11 +2309,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>51.063829787234042</v>
+        <v>50</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2301,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2314,17 +2347,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>8.5106382978723403</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2344,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2357,11 +2390,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>51.063829787234042</v>
+        <v>50</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2382,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2402,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2422,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2435,17 +2468,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.1276595744680851E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>8.5106382978723403</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2465,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AD0E9-5484-41A9-A22A-2F52680417A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF4D6A-5D6D-4DC0-ACB8-0C83E65A5270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:BA26"/>
+  <dimension ref="A1:BB26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
+      <selection pane="bottomRight" activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="54" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -758,8 +758,11 @@
       <c r="BA1" s="2">
         <v>45713</v>
       </c>
+      <c r="BB1" s="2">
+        <v>45714</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -771,11 +774,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9375</v>
+        <v>2.9387755102040818</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1175</v>
+        <v>1175.5102040816328</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -915,8 +918,11 @@
       <c r="BA2" s="3">
         <v>2</v>
       </c>
+      <c r="BB2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -929,11 +935,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.895833333333333</v>
+        <v>5.8775510204081636</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2358.333333333333</v>
+        <v>2351.0204081632655</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1079,8 +1085,11 @@
       <c r="BA3" s="3">
         <v>4</v>
       </c>
+      <c r="BB3" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1093,11 +1102,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.854166666666667</v>
+        <v>6.9183673469387754</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2741.6666666666665</v>
+        <v>2767.3469387755099</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1243,8 +1252,11 @@
       <c r="BA4" s="3">
         <v>7</v>
       </c>
+      <c r="BB4" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1257,11 +1269,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4375</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>975</v>
+        <v>971.42857142857144</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1389,8 +1401,11 @@
       <c r="BA5" s="3">
         <v>3</v>
       </c>
+      <c r="BB5" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1403,11 +1418,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.7916666666666667</v>
+        <v>1.7755102040816326</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>716.66666666666674</v>
+        <v>710.20408163265313</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1535,8 +1550,11 @@
       <c r="BA6" s="3">
         <v>3</v>
       </c>
+      <c r="BB6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1549,11 +1567,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1875</v>
+        <v>1.1836734693877551</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>475</v>
+        <v>473.46938775510205</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1654,8 +1672,11 @@
       <c r="BA7" s="3">
         <v>2</v>
       </c>
+      <c r="BB7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1668,11 +1689,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>302.0408163265306</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1755,8 +1776,11 @@
       <c r="BA8" s="3">
         <v>1</v>
       </c>
+      <c r="BB8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1769,11 +1793,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.39583333333333331</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>158.33333333333331</v>
+        <v>163.265306122449</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1820,8 +1844,11 @@
       <c r="AT9" s="3">
         <v>1</v>
       </c>
+      <c r="BB9" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1834,11 +1861,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.63265306122448983</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>253.06122448979593</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1915,8 +1942,11 @@
       <c r="AX10" s="3">
         <v>1</v>
       </c>
+      <c r="BB10" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1929,11 +1959,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.16326530612244897</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>66.666666666666657</v>
+        <v>65.306122448979579</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1960,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1973,11 +2003,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.27083333333333331</v>
+        <v>0.26530612244897961</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>108.33333333333331</v>
+        <v>106.12244897959184</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2019,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2032,11 +2062,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.1875</v>
+        <v>0.18367346938775511</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>73.469387755102048</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2066,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2079,11 +2109,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48.979591836734691</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2104,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2117,11 +2147,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.45833333333333331</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>183.33333333333334</v>
+        <v>179.59183673469389</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2169,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2182,11 +2212,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.24489795918367346</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>97.959183673469383</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2238,11 +2268,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.36734693877551022</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>146.9387755102041</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2309,11 +2339,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48.979591836734691</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2347,11 +2377,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>8.3333333333333321</v>
+        <v>8.1632653061224474</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2390,11 +2420,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48.979591836734691</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2468,11 +2498,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>8.3333333333333321</v>
+        <v>8.1632653061224474</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF4D6A-5D6D-4DC0-ACB8-0C83E65A5270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FD44D3-33E9-4B0C-92E3-115291043FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:BB26"/>
+  <dimension ref="A1:BC26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB1" sqref="BB1"/>
+      <selection pane="bottomRight" activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="55" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -761,8 +761,11 @@
       <c r="BB1" s="2">
         <v>45714</v>
       </c>
+      <c r="BC1" s="2">
+        <v>45715</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -774,11 +777,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9387755102040818</v>
+        <v>2.94</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1175.5102040816328</v>
+        <v>1176</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -921,8 +924,11 @@
       <c r="BB2" s="3">
         <v>3</v>
       </c>
+      <c r="BC2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -935,11 +941,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.8775510204081636</v>
+        <v>5.88</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2351.0204081632655</v>
+        <v>2352</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1088,8 +1094,11 @@
       <c r="BB3" s="3">
         <v>5</v>
       </c>
+      <c r="BC3" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1102,11 +1111,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.9183673469387754</v>
+        <v>6.86</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2767.3469387755099</v>
+        <v>2744.0000000000005</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1255,8 +1264,11 @@
       <c r="BB4" s="3">
         <v>10</v>
       </c>
+      <c r="BC4" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1269,11 +1281,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4285714285714284</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>971.42857142857144</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1404,8 +1416,11 @@
       <c r="BB5" s="3">
         <v>2</v>
       </c>
+      <c r="BC5" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1418,11 +1433,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.7755102040816326</v>
+        <v>1.78</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>710.20408163265313</v>
+        <v>712</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1553,8 +1568,11 @@
       <c r="BB6" s="3">
         <v>1</v>
       </c>
+      <c r="BC6" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1567,11 +1585,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1836734693877551</v>
+        <v>1.18</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>473.46938775510205</v>
+        <v>472</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1675,8 +1693,11 @@
       <c r="BB7" s="3">
         <v>1</v>
       </c>
+      <c r="BC7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1689,11 +1710,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.75510204081632648</v>
+        <v>0.74</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>302.0408163265306</v>
+        <v>296</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1780,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.40816326530612246</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>163.265306122449</v>
+        <v>160</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1848,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1861,11 +1882,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.63265306122448983</v>
+        <v>0.62</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>253.06122448979593</v>
+        <v>248</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1946,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1959,11 +1980,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.16326530612244897</v>
+        <v>0.16</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>65.306122448979579</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1990,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2003,11 +2024,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.26530612244897961</v>
+        <v>0.26</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>106.12244897959184</v>
+        <v>104</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2049,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2062,11 +2083,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18367346938775511</v>
+        <v>0.18</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>73.469387755102048</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2096,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2109,11 +2130,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.12244897959183673</v>
+        <v>0.12</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>48.979591836734691</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2134,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2147,11 +2168,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.44897959183673469</v>
+        <v>0.46</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>179.59183673469389</v>
+        <v>184</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2198,8 +2219,11 @@
       <c r="AZ15" s="3">
         <v>1</v>
       </c>
+      <c r="BC15" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2212,11 +2236,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.24489795918367346</v>
+        <v>0.24</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>97.959183673469383</v>
+        <v>95.999999999999986</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2255,10 +2279,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -2268,11 +2292,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.36734693877551022</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>146.9387755102041</v>
+        <v>160</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2325,8 +2349,11 @@
       <c r="BA17" s="3">
         <v>1</v>
       </c>
+      <c r="BC17" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2339,11 +2366,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.12244897959183673</v>
+        <v>0.12</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>48.979591836734691</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2364,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2377,17 +2404,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>2.0408163265306121E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>8.1632653061224474</v>
+        <v>8</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2407,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2420,11 +2447,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.12244897959183673</v>
+        <v>0.12</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>48.979591836734691</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2445,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2465,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2485,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2498,17 +2525,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>2.0408163265306121E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>8.1632653061224474</v>
+        <v>8</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2528,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FD44D3-33E9-4B0C-92E3-115291043FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375DC244-8A2B-42EF-8F26-5E0E4FAAFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:BC26"/>
+  <dimension ref="A1:BE26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC1" sqref="BC1"/>
+      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="57" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -764,8 +764,14 @@
       <c r="BC1" s="2">
         <v>45715</v>
       </c>
+      <c r="BD1" s="2">
+        <v>45716</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>45716</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -777,11 +783,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.94</v>
+        <v>2.9038461538461537</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1176</v>
+        <v>1161.5384615384614</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -927,8 +933,14 @@
       <c r="BC2" s="3">
         <v>3</v>
       </c>
+      <c r="BD2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -941,11 +953,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.88</v>
+        <v>5.9807692307692308</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2352</v>
+        <v>2392.3076923076924</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1097,8 +1109,14 @@
       <c r="BC3" s="3">
         <v>6</v>
       </c>
+      <c r="BD3" s="3">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1111,11 +1129,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.86</v>
+        <v>6.8269230769230766</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2744.0000000000005</v>
+        <v>2730.7692307692305</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1267,8 +1285,14 @@
       <c r="BC4" s="3">
         <v>4</v>
       </c>
+      <c r="BD4" s="3">
+        <v>8</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1281,11 +1305,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.4807692307692308</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>992.30769230769238</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1419,8 +1443,14 @@
       <c r="BC5" s="3">
         <v>6</v>
       </c>
+      <c r="BD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1433,11 +1463,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.78</v>
+        <v>1.7692307692307692</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>712</v>
+        <v>707.69230769230762</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1571,8 +1601,11 @@
       <c r="BC6" s="3">
         <v>2</v>
       </c>
+      <c r="BD6" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1585,11 +1618,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.18</v>
+        <v>1.1730769230769231</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>472</v>
+        <v>469.23076923076928</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1696,8 +1729,14 @@
       <c r="BC7" s="3">
         <v>1</v>
       </c>
+      <c r="BD7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1710,11 +1749,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1800,8 +1839,14 @@
       <c r="BB8" s="3">
         <v>1</v>
       </c>
+      <c r="BD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1814,11 +1859,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>153.84615384615387</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1869,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1882,11 +1927,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.62</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>269.23076923076923</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1966,8 +2011,11 @@
       <c r="BB10" s="3">
         <v>1</v>
       </c>
+      <c r="BE10" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1980,11 +2028,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2011,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2024,11 +2072,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2070,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2083,11 +2131,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2116,8 +2164,11 @@
       <c r="AW13" s="3">
         <v>1</v>
       </c>
+      <c r="BD13" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2130,11 +2181,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>47.999999999999993</v>
+        <v>46.15384615384616</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2155,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2168,11 +2219,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.46</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>184.61538461538464</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2222,8 +2273,11 @@
       <c r="BC15" s="3">
         <v>1</v>
       </c>
+      <c r="BE15" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2236,11 +2290,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>95.999999999999986</v>
+        <v>92.307692307692321</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2292,11 +2346,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>153.84615384615387</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2366,11 +2420,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>47.999999999999993</v>
+        <v>46.15384615384616</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2404,11 +2458,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>0.02</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2447,11 +2501,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>47.999999999999993</v>
+        <v>46.15384615384616</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2525,11 +2579,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375DC244-8A2B-42EF-8F26-5E0E4FAAFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61963DDB-3B8A-46E4-9722-67AE8F260F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:BE26"/>
+  <dimension ref="A1:BF26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="bottomRight" activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="57" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="58" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -770,8 +770,11 @@
       <c r="BE1" s="2">
         <v>45716</v>
       </c>
+      <c r="BF1" s="2">
+        <v>45718</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -783,11 +786,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9038461538461537</v>
+        <v>2.9056603773584904</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1161.5384615384614</v>
+        <v>1162.2641509433961</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -939,8 +942,11 @@
       <c r="BE2" s="3">
         <v>2</v>
       </c>
+      <c r="BF2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -953,11 +959,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.9807692307692308</v>
+        <v>5.9622641509433958</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2392.3076923076924</v>
+        <v>2384.9056603773583</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1115,8 +1121,11 @@
       <c r="BE3" s="3">
         <v>9</v>
       </c>
+      <c r="BF3" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1129,11 +1138,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.8269230769230766</v>
+        <v>6.9056603773584904</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2730.7692307692305</v>
+        <v>2762.2641509433961</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1291,8 +1300,11 @@
       <c r="BE4" s="3">
         <v>4</v>
       </c>
+      <c r="BF4" s="3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1305,11 +1317,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4807692307692308</v>
+        <v>2.4905660377358489</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>992.30769230769238</v>
+        <v>996.22641509433947</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1449,8 +1461,11 @@
       <c r="BE5" s="3">
         <v>3</v>
       </c>
+      <c r="BF5" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1463,11 +1478,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.7692307692307692</v>
+        <v>1.7358490566037736</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>707.69230769230762</v>
+        <v>694.33962264150944</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1605,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1618,11 +1633,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1730769230769231</v>
+        <v>1.1509433962264151</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>469.23076923076928</v>
+        <v>460.377358490566</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1736,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1749,11 +1764,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>294.33962264150944</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1846,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1859,11 +1874,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.38461538461538464</v>
+        <v>0.39622641509433965</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>153.84615384615387</v>
+        <v>158.49056603773587</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1913,8 +1928,11 @@
       <c r="BB9" s="3">
         <v>1</v>
       </c>
+      <c r="BF9" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1927,11 +1945,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.67307692307692313</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>269.23076923076923</v>
+        <v>271.69811320754718</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -2014,8 +2032,11 @@
       <c r="BE10" s="3">
         <v>4</v>
       </c>
+      <c r="BF10" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2028,11 +2049,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
+        <v>0.15094339622641509</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>61.53846153846154</v>
+        <v>60.377358490566031</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2059,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2072,11 +2093,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>98.113207547169822</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2118,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2131,11 +2152,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.19230769230769232</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>76.923076923076934</v>
+        <v>75.471698113207552</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2168,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2181,11 +2202,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.11538461538461539</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>46.15384615384616</v>
+        <v>45.283018867924532</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2206,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2219,11 +2240,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
+        <v>0.47169811320754718</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>184.61538461538464</v>
+        <v>188.67924528301887</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2276,8 +2297,11 @@
       <c r="BE15" s="3">
         <v>1</v>
       </c>
+      <c r="BF15" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2290,11 +2314,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>92.307692307692321</v>
+        <v>90.566037735849065</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2336,7 +2360,7 @@
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -2346,11 +2370,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.38461538461538464</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>153.84615384615387</v>
+        <v>150.9433962264151</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2420,11 +2444,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.11538461538461539</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>46.15384615384616</v>
+        <v>45.283018867924532</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2458,11 +2482,11 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>1.9230769230769232E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
+        <v>7.5471698113207539</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
@@ -2501,11 +2525,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.11538461538461539</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>46.15384615384616</v>
+        <v>45.283018867924532</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>1.9230769230769232E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
+        <v>7.5471698113207539</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Eurobanknotes\EUR2Coins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61963DDB-3B8A-46E4-9722-67AE8F260F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{61963DDB-3B8A-46E4-9722-67AE8F260F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9F0840-9689-4925-8070-A3CF7FA69DF2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -573,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:BF26"/>
+  <dimension ref="A1:BG26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF1" sqref="BF1"/>
+      <selection pane="bottomRight" activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="58" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="59" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -773,8 +773,11 @@
       <c r="BF1" s="2">
         <v>45718</v>
       </c>
+      <c r="BG1" s="2">
+        <v>45719</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -786,11 +789,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.9056603773584904</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1162.2641509433961</v>
+        <v>1155.5555555555554</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -945,8 +948,11 @@
       <c r="BF2" s="3">
         <v>3</v>
       </c>
+      <c r="BG2" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -959,11 +965,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.9622641509433958</v>
+        <v>5.9629629629629628</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2384.9056603773583</v>
+        <v>2385.1851851851852</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1124,8 +1130,11 @@
       <c r="BF3" s="3">
         <v>5</v>
       </c>
+      <c r="BG3" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1138,11 +1147,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.9056603773584904</v>
+        <v>6.8703703703703702</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2762.2641509433961</v>
+        <v>2748.1481481481478</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1303,8 +1312,11 @@
       <c r="BF4" s="3">
         <v>11</v>
       </c>
+      <c r="BG4" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1317,11 +1329,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4905660377358489</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>996.22641509433947</v>
+        <v>977.77777777777783</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1465,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1478,11 +1490,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.7358490566037736</v>
+        <v>1.7407407407407407</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>694.33962264150944</v>
+        <v>696.29629629629619</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1619,8 +1631,11 @@
       <c r="BD6" s="3">
         <v>3</v>
       </c>
+      <c r="BG6" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1633,11 +1648,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.1509433962264151</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>460.377358490566</v>
+        <v>488.88888888888891</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1750,8 +1765,11 @@
       <c r="BE7" s="3">
         <v>1</v>
       </c>
+      <c r="BG7" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1764,11 +1782,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.73584905660377353</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>294.33962264150944</v>
+        <v>296.29629629629625</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1860,8 +1878,11 @@
       <c r="BE8" s="3">
         <v>1</v>
       </c>
+      <c r="BG8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1874,11 +1895,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.39622641509433965</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>158.49056603773587</v>
+        <v>170.37037037037038</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1931,8 +1952,11 @@
       <c r="BF9" s="3">
         <v>1</v>
       </c>
+      <c r="BG9" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1945,11 +1969,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.67924528301886788</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>271.69811320754718</v>
+        <v>266.66666666666663</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -2036,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2049,11 +2073,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.15094339622641509</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>60.377358490566031</v>
+        <v>59.25925925925926</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2080,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2093,11 +2117,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.24528301886792453</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>98.113207547169822</v>
+        <v>96.296296296296291</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2139,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2152,11 +2176,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18867924528301888</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>75.471698113207552</v>
+        <v>74.074074074074062</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2189,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2202,11 +2226,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.11320754716981132</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>45.283018867924532</v>
+        <v>51.851851851851848</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2226,8 +2250,11 @@
       <c r="AY14" s="3">
         <v>1</v>
       </c>
+      <c r="BG14" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2240,11 +2267,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.47169811320754718</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>188.67924528301887</v>
+        <v>185.18518518518516</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2301,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2314,11 +2341,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.22641509433962265</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>90.566037735849065</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2357,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2370,11 +2397,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.37735849056603776</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>150.9433962264151</v>
+        <v>155.55555555555554</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2430,11 +2457,14 @@
       <c r="BC17" s="3">
         <v>2</v>
       </c>
+      <c r="BG17" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -2444,11 +2474,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.11320754716981132</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>45.283018867924532</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2469,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2482,17 +2512,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>1.8867924528301886E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>7.5471698113207539</v>
+        <v>7.4074074074074074</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2512,10 +2542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -2525,11 +2555,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.11320754716981132</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>45.283018867924532</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2550,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2570,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2590,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2603,17 +2633,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>1.8867924528301886E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>7.5471698113207539</v>
+        <v>7.4074074074074074</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2633,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>

--- a/Erhebung.xlsx
+++ b/Erhebung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Eurobanknotes/EUR2Coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{61963DDB-3B8A-46E4-9722-67AE8F260F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9F0840-9689-4925-8070-A3CF7FA69DF2}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{61963DDB-3B8A-46E4-9722-67AE8F260F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7BAF26-64FB-4D15-AF8D-2981A02078DF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F4D083-8116-4983-BACF-6D3BA449D5B9}"/>
   </bookViews>
@@ -254,6 +254,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FFCA1-E42E-4437-9E43-4A66DFC07DA5}">
-  <dimension ref="A1:BG26"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG1" sqref="BG1"/>
+      <selection pane="bottomRight" activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,11 +598,11 @@
     <col min="48" max="48" width="11.28515625" style="3" customWidth="1"/>
     <col min="49" max="50" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="59" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="10.7109375" style="3"/>
+    <col min="52" max="63" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -776,8 +780,20 @@
       <c r="BG1" s="2">
         <v>45719</v>
       </c>
+      <c r="BH1" s="2">
+        <v>45721</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>45722</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>45726</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>45726</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -789,11 +805,11 @@
       </c>
       <c r="D2" s="5">
         <f>SUM(F2:AAA2)/COUNT($F$1:$AAA$1)</f>
-        <v>2.8888888888888888</v>
+        <v>2.8620689655172415</v>
       </c>
       <c r="E2" s="9">
         <f>D2/25*10000</f>
-        <v>1155.5555555555554</v>
+        <v>1144.8275862068965</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -951,8 +967,20 @@
       <c r="BG2" s="3">
         <v>2</v>
       </c>
+      <c r="BH2" s="3">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A22" si="0">_xlfn.RANK.EQ(D3,$D$3:$D$26,0)</f>
         <v>2</v>
@@ -965,11 +993,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D26" si="1">SUM(F3:AAA3)/COUNT($F$1:$AAA$1)</f>
-        <v>5.9629629629629628</v>
+        <v>5.9655172413793105</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E26" si="2">D3/25*10000</f>
-        <v>2385.1851851851852</v>
+        <v>2386.2068965517242</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -1133,8 +1161,20 @@
       <c r="BG3" s="3">
         <v>6</v>
       </c>
+      <c r="BH3" s="3">
+        <v>8</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>4</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>10</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1147,11 +1187,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>6.8703703703703702</v>
+        <v>7.0172413793103452</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>2748.1481481481478</v>
+        <v>2806.8965517241377</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -1315,8 +1355,20 @@
       <c r="BG4" s="3">
         <v>5</v>
       </c>
+      <c r="BH4" s="3">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>13</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>7</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1329,11 +1381,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.4444444444444446</v>
+        <v>2.4482758620689653</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>977.77777777777783</v>
+        <v>979.31034482758616</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
@@ -1476,8 +1528,20 @@
       <c r="BF5" s="3">
         <v>3</v>
       </c>
+      <c r="BH5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1490,11 +1554,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>1.7407407407407407</v>
+        <v>1.7413793103448276</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>696.29629629629619</v>
+        <v>696.55172413793093</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1634,8 +1698,17 @@
       <c r="BG6" s="3">
         <v>2</v>
       </c>
+      <c r="BH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>4</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1648,11 +1721,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2222222222222223</v>
+        <v>1.1551724137931034</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>488.88888888888891</v>
+        <v>462.06896551724134</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1768,8 +1841,11 @@
       <c r="BG7" s="3">
         <v>5</v>
       </c>
+      <c r="BK7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1782,11 +1858,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.7407407407407407</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>296.29629629629625</v>
+        <v>289.65517241379314</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1881,11 +1957,17 @@
       <c r="BG8" s="3">
         <v>1</v>
       </c>
+      <c r="BH8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -1895,11 +1977,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0.42592592592592593</v>
+        <v>0.43103448275862066</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>170.37037037037038</v>
+        <v>172.41379310344828</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1955,8 +2037,14 @@
       <c r="BG9" s="3">
         <v>2</v>
       </c>
+      <c r="BH9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1969,11 +2057,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>266.66666666666663</v>
+        <v>262.06896551724134</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -2059,8 +2147,14 @@
       <c r="BF10" s="3">
         <v>1</v>
       </c>
+      <c r="BH10" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2073,11 +2167,11 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>59.25925925925926</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2103,8 +2197,14 @@
       <c r="AZ11" s="3">
         <v>1</v>
       </c>
+      <c r="BI11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2117,11 +2217,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.24074074074074073</v>
+        <v>0.22413793103448276</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>96.296296296296291</v>
+        <v>89.655172413793096</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2163,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2176,11 +2276,11 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18518518518518517</v>
+        <v>0.18965517241379309</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>74.074074074074062</v>
+        <v>75.862068965517238</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2212,8 +2312,11 @@
       <c r="BD13" s="3">
         <v>1</v>
       </c>
+      <c r="BI13" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2226,11 +2329,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0.12962962962962962</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>51.851851851851848</v>
+        <v>55.172413793103445</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2253,8 +2356,11 @@
       <c r="BG14" s="3">
         <v>1</v>
       </c>
+      <c r="BH14" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2267,11 +2373,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>0.46296296296296297</v>
+        <v>0.43103448275862066</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>185.18518518518516</v>
+        <v>172.41379310344828</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2328,10 +2434,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -2341,11 +2447,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.22413793103448276</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
+        <v>89.655172413793096</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2383,8 +2489,11 @@
       <c r="BA16" s="3">
         <v>1</v>
       </c>
+      <c r="BJ16" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2397,11 +2506,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>0.3888888888888889</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>155.55555555555554</v>
+        <v>151.72413793103448</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2460,8 +2569,11 @@
       <c r="BG17" s="3">
         <v>1</v>
       </c>
+      <c r="BJ17" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2474,11 +2586,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>44.444444444444443</v>
+        <v>41.379310344827587</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -2499,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2512,17 +2624,17 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(F19:AAA19)/COUNT($F$1:$AAA$1)</f>
-        <v>1.8518518518518517E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>7.4074074074074074</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="AE19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2542,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2555,11 +2667,11 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>44.444444444444443</v>
+        <v>41.379310344827587</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2580,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2600,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ref="A23:A26" si="3">_xlfn.RANK.EQ(D23,$D$3:$D$26,0)</f>
         <v>20</v>
@@ -2620,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2633,17 +2745,17 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>1.8518518518518517E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>7.4074074074074074</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2663,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
